--- a/input/raw_data/data_extraction/case_report_data_extraction.xlsx
+++ b/input/raw_data/data_extraction/case_report_data_extraction.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackgedge/Library/Mobile Documents/com~apple~CloudDocs/Dev/data/msc/dissertation/iifo_data/lit_search_4/input/raw_data/data_extraction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{B44C5633-8C4D-884A-996A-AD579C31B39E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{4D8B6699-22AA-1A46-9429-D195E57D287A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20560" yWindow="880" windowWidth="20580" windowHeight="12220" xr2:uid="{75954437-E4AF-7C43-AD2A-639C66837574}"/>
+    <workbookView xWindow="20560" yWindow="900" windowWidth="20560" windowHeight="12200" xr2:uid="{75954437-E4AF-7C43-AD2A-639C66837574}"/>
   </bookViews>
   <sheets>
     <sheet name="case_report_data_extraction" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="92">
   <si>
     <t>Study_ID</t>
   </si>
@@ -215,13 +215,94 @@
   </si>
   <si>
     <t>"aged forty, for the extraction of an ordinary silver-plated dinner knife nine and a half inches long, which he had swalloweel in imitation of the juggler's feat."</t>
+  </si>
+  <si>
+    <t>39-001</t>
+  </si>
+  <si>
+    <t>Is_Prisoner</t>
+  </si>
+  <si>
+    <t>Is_Psych_Inpat</t>
+  </si>
+  <si>
+    <t>Psych_Hx</t>
+  </si>
+  <si>
+    <t>"31 year old severely mentally and physically handicapped man living a in a hospital for the handicapped", "5 bells in the mediastinum and an electric battery in the centre of the abdomen"</t>
+  </si>
+  <si>
+    <t>51-001</t>
+  </si>
+  <si>
+    <t>51-002</t>
+  </si>
+  <si>
+    <t>51-003</t>
+  </si>
+  <si>
+    <t>51-004</t>
+  </si>
+  <si>
+    <t>51-005</t>
+  </si>
+  <si>
+    <t>Gastrointestinal Crosses</t>
+  </si>
+  <si>
+    <t>54-001</t>
+  </si>
+  <si>
+    <t>Gastrointestinal Cross</t>
+  </si>
+  <si>
+    <t>60-001</t>
+  </si>
+  <si>
+    <t>Toilet Roll</t>
+  </si>
+  <si>
+    <t>For dietary purposes</t>
+  </si>
+  <si>
+    <t>61-001</t>
+  </si>
+  <si>
+    <t>Interintestinal adhesions</t>
+  </si>
+  <si>
+    <t>5 bells, 1 battery</t>
+  </si>
+  <si>
+    <t>9X1.5cm pocket knife blade</t>
+  </si>
+  <si>
+    <t>85-001</t>
+  </si>
+  <si>
+    <t>"lodged near the ileocecal valve and an inflammatory mass had formed around the intraluminal coin, causing a 10 _x0001_ 7 cm fibrous tumor to completely obstruct the small bowel"</t>
+  </si>
+  <si>
+    <t>US penny coin</t>
+  </si>
+  <si>
+    <t>92-001</t>
+  </si>
+  <si>
+    <t>Rolled up tuna can lid</t>
+  </si>
+  <si>
+    <t>Command hallucinations in schizophrenic prison inmate</t>
+  </si>
+  <si>
+    <t>Previous_Ingestions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -352,6 +433,12 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1078,11 +1165,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF37846A-8CBF-AA40-A2E7-D02F4D03EEE3}">
-  <dimension ref="A1:V20"/>
+  <dimension ref="A1:Z32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S20" sqref="S20"/>
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R32" sqref="R32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1090,15 +1177,18 @@
     <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.6640625" customWidth="1"/>
-    <col min="8" max="12" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.6640625" customWidth="1"/>
-    <col min="14" max="21" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="43.33203125" customWidth="1"/>
+    <col min="5" max="7" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.6640625" customWidth="1"/>
+    <col min="9" max="10" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.6640625" customWidth="1"/>
+    <col min="12" max="16" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.6640625" customWidth="1"/>
+    <col min="18" max="18" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="25" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="43.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="197" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" ht="197" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1112,61 +1202,73 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Z1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>3</v>
       </c>
@@ -1180,7 +1282,7 @@
         <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
         <v>22</v>
@@ -1189,16 +1291,16 @@
         <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
         <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L2" t="s">
         <v>23</v>
@@ -1210,7 +1312,7 @@
         <v>22</v>
       </c>
       <c r="O2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P2" t="s">
         <v>23</v>
@@ -1219,22 +1321,34 @@
         <v>22</v>
       </c>
       <c r="R2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="U2" t="s">
         <v>22</v>
       </c>
       <c r="V2" t="s">
+        <v>23</v>
+      </c>
+      <c r="W2" t="s">
+        <v>23</v>
+      </c>
+      <c r="X2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
@@ -1248,28 +1362,28 @@
         <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K3" t="s">
         <v>23</v>
       </c>
       <c r="L3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M3" t="s">
         <v>22</v>
@@ -1278,10 +1392,10 @@
         <v>22</v>
       </c>
       <c r="O3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q3" t="s">
         <v>22</v>
@@ -1293,16 +1407,28 @@
         <v>22</v>
       </c>
       <c r="T3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="U3" t="s">
         <v>22</v>
       </c>
       <c r="V3" t="s">
+        <v>22</v>
+      </c>
+      <c r="W3" t="s">
+        <v>22</v>
+      </c>
+      <c r="X3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1316,28 +1442,28 @@
         <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K4" t="s">
         <v>23</v>
       </c>
       <c r="L4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M4" t="s">
         <v>22</v>
@@ -1346,31 +1472,43 @@
         <v>22</v>
       </c>
       <c r="O4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q4" t="s">
         <v>22</v>
       </c>
       <c r="R4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="U4" t="s">
         <v>22</v>
       </c>
       <c r="V4" t="s">
+        <v>23</v>
+      </c>
+      <c r="W4" t="s">
+        <v>23</v>
+      </c>
+      <c r="X4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1384,28 +1522,28 @@
         <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K5" t="s">
         <v>23</v>
       </c>
       <c r="L5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M5" t="s">
         <v>22</v>
@@ -1414,31 +1552,43 @@
         <v>22</v>
       </c>
       <c r="O5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q5" t="s">
         <v>22</v>
       </c>
       <c r="R5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="U5" t="s">
         <v>22</v>
       </c>
       <c r="V5" t="s">
+        <v>23</v>
+      </c>
+      <c r="W5" t="s">
+        <v>23</v>
+      </c>
+      <c r="X5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1452,28 +1602,28 @@
         <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M6" t="s">
         <v>22</v>
@@ -1491,22 +1641,34 @@
         <v>22</v>
       </c>
       <c r="R6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="U6" t="s">
         <v>22</v>
       </c>
       <c r="V6" t="s">
+        <v>23</v>
+      </c>
+      <c r="W6" t="s">
+        <v>23</v>
+      </c>
+      <c r="X6" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1520,28 +1682,28 @@
         <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M7" t="s">
         <v>22</v>
@@ -1550,7 +1712,7 @@
         <v>22</v>
       </c>
       <c r="O7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P7" t="s">
         <v>23</v>
@@ -1559,22 +1721,34 @@
         <v>22</v>
       </c>
       <c r="R7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="U7" t="s">
         <v>22</v>
       </c>
       <c r="V7" t="s">
+        <v>23</v>
+      </c>
+      <c r="W7" t="s">
+        <v>21</v>
+      </c>
+      <c r="X7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>3</v>
       </c>
@@ -1588,28 +1762,28 @@
         <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G8" t="s">
         <v>22</v>
       </c>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M8" t="s">
         <v>22</v>
@@ -1618,10 +1792,10 @@
         <v>22</v>
       </c>
       <c r="O8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q8" t="s">
         <v>22</v>
@@ -1633,16 +1807,28 @@
         <v>22</v>
       </c>
       <c r="T8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="U8" t="s">
         <v>22</v>
       </c>
       <c r="V8" t="s">
+        <v>22</v>
+      </c>
+      <c r="W8" t="s">
+        <v>22</v>
+      </c>
+      <c r="X8" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>3</v>
       </c>
@@ -1656,25 +1842,25 @@
         <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L9" t="s">
         <v>22</v>
@@ -1686,31 +1872,43 @@
         <v>22</v>
       </c>
       <c r="O9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q9" t="s">
         <v>22</v>
       </c>
       <c r="R9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="U9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V9" t="s">
+        <v>21</v>
+      </c>
+      <c r="W9" t="s">
+        <v>21</v>
+      </c>
+      <c r="X9" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>3</v>
       </c>
@@ -1724,28 +1922,28 @@
         <v>32</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K10" t="s">
         <v>23</v>
       </c>
       <c r="L10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M10" t="s">
         <v>22</v>
@@ -1754,7 +1952,7 @@
         <v>22</v>
       </c>
       <c r="O10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P10" t="s">
         <v>23</v>
@@ -1763,22 +1961,34 @@
         <v>22</v>
       </c>
       <c r="R10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="U10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V10" t="s">
+        <v>23</v>
+      </c>
+      <c r="W10" t="s">
+        <v>23</v>
+      </c>
+      <c r="X10" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3</v>
       </c>
@@ -1792,37 +2002,37 @@
         <v>32</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F11" t="s">
         <v>21</v>
       </c>
       <c r="G11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L11" t="s">
         <v>23</v>
       </c>
       <c r="M11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N11" t="s">
         <v>22</v>
       </c>
       <c r="O11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P11" t="s">
         <v>23</v>
@@ -1831,22 +2041,34 @@
         <v>23</v>
       </c>
       <c r="R11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T11" t="s">
         <v>23</v>
       </c>
       <c r="U11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="V11" t="s">
+        <v>23</v>
+      </c>
+      <c r="W11" t="s">
+        <v>23</v>
+      </c>
+      <c r="X11" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z11" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3</v>
       </c>
@@ -1869,7 +2091,7 @@
         <v>22</v>
       </c>
       <c r="H12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I12" t="s">
         <v>22</v>
@@ -1878,10 +2100,10 @@
         <v>22</v>
       </c>
       <c r="K12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M12" t="s">
         <v>22</v>
@@ -1890,10 +2112,10 @@
         <v>22</v>
       </c>
       <c r="O12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q12" t="s">
         <v>22</v>
@@ -1905,16 +2127,28 @@
         <v>22</v>
       </c>
       <c r="T12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="U12" t="s">
         <v>22</v>
       </c>
       <c r="V12" t="s">
+        <v>22</v>
+      </c>
+      <c r="W12" t="s">
+        <v>22</v>
+      </c>
+      <c r="X12" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3</v>
       </c>
@@ -1928,25 +2162,25 @@
         <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G13" t="s">
         <v>22</v>
       </c>
       <c r="H13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L13" t="s">
         <v>23</v>
@@ -1958,31 +2192,43 @@
         <v>22</v>
       </c>
       <c r="O13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P13" t="s">
         <v>23</v>
       </c>
       <c r="Q13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="U13" t="s">
         <v>23</v>
       </c>
       <c r="V13" t="s">
+        <v>23</v>
+      </c>
+      <c r="W13" t="s">
+        <v>21</v>
+      </c>
+      <c r="X13" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z13" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3</v>
       </c>
@@ -2005,7 +2251,7 @@
         <v>22</v>
       </c>
       <c r="H14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I14" t="s">
         <v>22</v>
@@ -2014,10 +2260,10 @@
         <v>22</v>
       </c>
       <c r="K14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M14" t="s">
         <v>22</v>
@@ -2026,31 +2272,43 @@
         <v>22</v>
       </c>
       <c r="O14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q14" t="s">
         <v>22</v>
       </c>
       <c r="R14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="U14" t="s">
         <v>22</v>
       </c>
       <c r="V14" t="s">
+        <v>21</v>
+      </c>
+      <c r="W14" t="s">
+        <v>21</v>
+      </c>
+      <c r="X14" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z14" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3</v>
       </c>
@@ -2073,7 +2331,7 @@
         <v>22</v>
       </c>
       <c r="H15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I15" t="s">
         <v>22</v>
@@ -2082,10 +2340,10 @@
         <v>22</v>
       </c>
       <c r="K15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M15" t="s">
         <v>22</v>
@@ -2094,13 +2352,13 @@
         <v>22</v>
       </c>
       <c r="O15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R15" t="s">
         <v>22</v>
@@ -2109,16 +2367,28 @@
         <v>22</v>
       </c>
       <c r="T15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="U15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="V15" t="s">
+        <v>22</v>
+      </c>
+      <c r="W15" t="s">
+        <v>22</v>
+      </c>
+      <c r="X15" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z15" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3</v>
       </c>
@@ -2132,25 +2402,25 @@
         <v>21</v>
       </c>
       <c r="E16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L16" t="s">
         <v>22</v>
@@ -2162,10 +2432,10 @@
         <v>22</v>
       </c>
       <c r="O16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q16" t="s">
         <v>22</v>
@@ -2177,16 +2447,28 @@
         <v>22</v>
       </c>
       <c r="T16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="U16" t="s">
         <v>22</v>
       </c>
       <c r="V16" t="s">
+        <v>22</v>
+      </c>
+      <c r="W16" t="s">
+        <v>22</v>
+      </c>
+      <c r="X16" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z16" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3</v>
       </c>
@@ -2200,22 +2482,22 @@
         <v>28</v>
       </c>
       <c r="E17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K17" t="s">
         <v>23</v>
@@ -2230,31 +2512,43 @@
         <v>22</v>
       </c>
       <c r="O17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q17" t="s">
         <v>22</v>
       </c>
       <c r="R17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="U17" t="s">
         <v>22</v>
       </c>
       <c r="V17" t="s">
+        <v>23</v>
+      </c>
+      <c r="W17" t="s">
+        <v>23</v>
+      </c>
+      <c r="X17" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z17" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>3</v>
       </c>
@@ -2277,7 +2571,7 @@
         <v>22</v>
       </c>
       <c r="H18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I18" t="s">
         <v>22</v>
@@ -2286,7 +2580,7 @@
         <v>22</v>
       </c>
       <c r="K18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L18" t="s">
         <v>23</v>
@@ -2298,31 +2592,43 @@
         <v>22</v>
       </c>
       <c r="O18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P18" t="s">
         <v>23</v>
       </c>
       <c r="Q18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="U18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="V18" t="s">
+        <v>23</v>
+      </c>
+      <c r="W18" t="s">
+        <v>23</v>
+      </c>
+      <c r="X18" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z18" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3</v>
       </c>
@@ -2336,28 +2642,28 @@
         <v>28</v>
       </c>
       <c r="E19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K19" t="s">
         <v>23</v>
       </c>
       <c r="L19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M19" t="s">
         <v>22</v>
@@ -2366,7 +2672,7 @@
         <v>22</v>
       </c>
       <c r="O19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P19" t="s">
         <v>23</v>
@@ -2375,22 +2681,34 @@
         <v>22</v>
       </c>
       <c r="R19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="U19" t="s">
         <v>22</v>
       </c>
       <c r="V19" t="s">
+        <v>23</v>
+      </c>
+      <c r="W19" t="s">
+        <v>23</v>
+      </c>
+      <c r="X19" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z19" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>3</v>
       </c>
@@ -2413,7 +2731,7 @@
         <v>22</v>
       </c>
       <c r="H20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I20" t="s">
         <v>22</v>
@@ -2422,10 +2740,10 @@
         <v>22</v>
       </c>
       <c r="K20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L20" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M20" t="s">
         <v>22</v>
@@ -2434,31 +2752,900 @@
         <v>22</v>
       </c>
       <c r="O20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q20" t="s">
         <v>22</v>
       </c>
       <c r="R20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T20" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="U20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="V20" t="s">
+        <v>21</v>
+      </c>
+      <c r="W20" t="s">
+        <v>21</v>
+      </c>
+      <c r="X20" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z20" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>39</v>
+      </c>
+      <c r="B21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21">
+        <v>31</v>
+      </c>
+      <c r="D21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J21" t="s">
+        <v>21</v>
+      </c>
+      <c r="K21" t="s">
+        <v>23</v>
+      </c>
+      <c r="L21" t="s">
+        <v>23</v>
+      </c>
+      <c r="M21" t="s">
+        <v>22</v>
+      </c>
+      <c r="N21" t="s">
+        <v>22</v>
+      </c>
+      <c r="O21" t="s">
+        <v>22</v>
+      </c>
+      <c r="P21" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>23</v>
+      </c>
+      <c r="R21" t="s">
+        <v>83</v>
+      </c>
+      <c r="S21" t="s">
+        <v>23</v>
+      </c>
+      <c r="T21" t="s">
+        <v>22</v>
+      </c>
+      <c r="U21" t="s">
+        <v>22</v>
+      </c>
+      <c r="V21" t="s">
+        <v>22</v>
+      </c>
+      <c r="W21" t="s">
+        <v>22</v>
+      </c>
+      <c r="X21" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>51</v>
+      </c>
+      <c r="B23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23">
+        <v>20</v>
+      </c>
+      <c r="D23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" t="s">
+        <v>21</v>
+      </c>
+      <c r="I23" t="s">
+        <v>23</v>
+      </c>
+      <c r="J23" t="s">
+        <v>23</v>
+      </c>
+      <c r="K23" t="s">
+        <v>22</v>
+      </c>
+      <c r="L23" t="s">
+        <v>22</v>
+      </c>
+      <c r="M23" t="s">
+        <v>22</v>
+      </c>
+      <c r="N23" t="s">
+        <v>22</v>
+      </c>
+      <c r="O23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P23" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>23</v>
+      </c>
+      <c r="R23" t="s">
+        <v>75</v>
+      </c>
+      <c r="S23" t="s">
+        <v>22</v>
+      </c>
+      <c r="T23" t="s">
+        <v>23</v>
+      </c>
+      <c r="U23" t="s">
+        <v>22</v>
+      </c>
+      <c r="V23" t="s">
+        <v>23</v>
+      </c>
+      <c r="W23" t="s">
+        <v>23</v>
+      </c>
+      <c r="X23" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>51</v>
+      </c>
+      <c r="B24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24">
+        <v>20</v>
+      </c>
+      <c r="D24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" t="s">
+        <v>21</v>
+      </c>
+      <c r="I24" t="s">
+        <v>23</v>
+      </c>
+      <c r="J24" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24" t="s">
+        <v>22</v>
+      </c>
+      <c r="L24" t="s">
+        <v>22</v>
+      </c>
+      <c r="M24" t="s">
+        <v>22</v>
+      </c>
+      <c r="N24" t="s">
+        <v>22</v>
+      </c>
+      <c r="O24" t="s">
+        <v>22</v>
+      </c>
+      <c r="P24" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>23</v>
+      </c>
+      <c r="R24" t="s">
+        <v>75</v>
+      </c>
+      <c r="S24" t="s">
+        <v>22</v>
+      </c>
+      <c r="T24" t="s">
+        <v>23</v>
+      </c>
+      <c r="U24" t="s">
+        <v>22</v>
+      </c>
+      <c r="V24" t="s">
+        <v>23</v>
+      </c>
+      <c r="W24" t="s">
+        <v>23</v>
+      </c>
+      <c r="X24" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>51</v>
+      </c>
+      <c r="B25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25">
+        <v>19</v>
+      </c>
+      <c r="D25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" t="s">
+        <v>23</v>
+      </c>
+      <c r="J25" t="s">
+        <v>23</v>
+      </c>
+      <c r="K25" t="s">
+        <v>22</v>
+      </c>
+      <c r="L25" t="s">
+        <v>22</v>
+      </c>
+      <c r="M25" t="s">
+        <v>22</v>
+      </c>
+      <c r="N25" t="s">
+        <v>22</v>
+      </c>
+      <c r="O25" t="s">
+        <v>22</v>
+      </c>
+      <c r="P25" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>23</v>
+      </c>
+      <c r="R25" t="s">
+        <v>75</v>
+      </c>
+      <c r="S25" t="s">
+        <v>22</v>
+      </c>
+      <c r="T25" t="s">
+        <v>23</v>
+      </c>
+      <c r="U25" t="s">
+        <v>22</v>
+      </c>
+      <c r="V25" t="s">
+        <v>23</v>
+      </c>
+      <c r="W25" t="s">
+        <v>23</v>
+      </c>
+      <c r="X25" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>51</v>
+      </c>
+      <c r="B26" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26">
+        <v>21</v>
+      </c>
+      <c r="D26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" t="s">
+        <v>21</v>
+      </c>
+      <c r="I26" t="s">
+        <v>23</v>
+      </c>
+      <c r="J26" t="s">
+        <v>23</v>
+      </c>
+      <c r="K26" t="s">
+        <v>22</v>
+      </c>
+      <c r="L26" t="s">
+        <v>22</v>
+      </c>
+      <c r="M26" t="s">
+        <v>22</v>
+      </c>
+      <c r="N26" t="s">
+        <v>22</v>
+      </c>
+      <c r="O26" t="s">
+        <v>22</v>
+      </c>
+      <c r="P26" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>23</v>
+      </c>
+      <c r="R26" t="s">
+        <v>75</v>
+      </c>
+      <c r="S26" t="s">
+        <v>22</v>
+      </c>
+      <c r="T26" t="s">
+        <v>23</v>
+      </c>
+      <c r="U26" t="s">
+        <v>22</v>
+      </c>
+      <c r="V26" t="s">
+        <v>23</v>
+      </c>
+      <c r="W26" t="s">
+        <v>23</v>
+      </c>
+      <c r="X26" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>51</v>
+      </c>
+      <c r="B27" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27">
+        <v>29</v>
+      </c>
+      <c r="D27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" t="s">
+        <v>21</v>
+      </c>
+      <c r="I27" t="s">
+        <v>23</v>
+      </c>
+      <c r="J27" t="s">
+        <v>23</v>
+      </c>
+      <c r="K27" t="s">
+        <v>22</v>
+      </c>
+      <c r="L27" t="s">
+        <v>22</v>
+      </c>
+      <c r="M27" t="s">
+        <v>22</v>
+      </c>
+      <c r="N27" t="s">
+        <v>22</v>
+      </c>
+      <c r="O27" t="s">
+        <v>22</v>
+      </c>
+      <c r="P27" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>23</v>
+      </c>
+      <c r="R27" t="s">
+        <v>75</v>
+      </c>
+      <c r="S27" t="s">
+        <v>22</v>
+      </c>
+      <c r="T27" t="s">
+        <v>23</v>
+      </c>
+      <c r="U27" t="s">
+        <v>22</v>
+      </c>
+      <c r="V27" t="s">
+        <v>23</v>
+      </c>
+      <c r="W27" t="s">
+        <v>23</v>
+      </c>
+      <c r="X27" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>54</v>
+      </c>
+      <c r="B28" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28">
+        <v>23</v>
+      </c>
+      <c r="D28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" t="s">
+        <v>21</v>
+      </c>
+      <c r="I28" t="s">
+        <v>23</v>
+      </c>
+      <c r="J28" t="s">
+        <v>23</v>
+      </c>
+      <c r="K28" t="s">
+        <v>22</v>
+      </c>
+      <c r="L28" t="s">
+        <v>22</v>
+      </c>
+      <c r="M28" t="s">
+        <v>22</v>
+      </c>
+      <c r="N28" t="s">
+        <v>22</v>
+      </c>
+      <c r="O28" t="s">
+        <v>22</v>
+      </c>
+      <c r="P28" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>22</v>
+      </c>
+      <c r="R28" t="s">
+        <v>77</v>
+      </c>
+      <c r="S28" t="s">
+        <v>22</v>
+      </c>
+      <c r="T28" t="s">
+        <v>23</v>
+      </c>
+      <c r="U28" t="s">
+        <v>22</v>
+      </c>
+      <c r="V28" t="s">
+        <v>21</v>
+      </c>
+      <c r="W28" t="s">
+        <v>21</v>
+      </c>
+      <c r="X28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>60</v>
+      </c>
+      <c r="B29" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29">
+        <v>16</v>
+      </c>
+      <c r="D29" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" t="s">
+        <v>22</v>
+      </c>
+      <c r="H29" t="s">
+        <v>22</v>
+      </c>
+      <c r="I29" t="s">
+        <v>22</v>
+      </c>
+      <c r="J29" t="s">
+        <v>22</v>
+      </c>
+      <c r="K29" t="s">
+        <v>22</v>
+      </c>
+      <c r="L29" t="s">
+        <v>23</v>
+      </c>
+      <c r="M29" t="s">
+        <v>22</v>
+      </c>
+      <c r="N29" t="s">
+        <v>22</v>
+      </c>
+      <c r="O29" t="s">
+        <v>22</v>
+      </c>
+      <c r="P29" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>23</v>
+      </c>
+      <c r="R29" t="s">
+        <v>79</v>
+      </c>
+      <c r="S29" t="s">
+        <v>22</v>
+      </c>
+      <c r="T29" t="s">
+        <v>22</v>
+      </c>
+      <c r="U29" t="s">
+        <v>22</v>
+      </c>
+      <c r="V29" t="s">
+        <v>22</v>
+      </c>
+      <c r="W29" t="s">
+        <v>22</v>
+      </c>
+      <c r="X29" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>61</v>
+      </c>
+      <c r="B30" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30">
+        <v>22</v>
+      </c>
+      <c r="D30" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H30" t="s">
+        <v>23</v>
+      </c>
+      <c r="I30" t="s">
+        <v>23</v>
+      </c>
+      <c r="J30" t="s">
+        <v>22</v>
+      </c>
+      <c r="K30" t="s">
+        <v>22</v>
+      </c>
+      <c r="L30" t="s">
+        <v>22</v>
+      </c>
+      <c r="M30" t="s">
+        <v>22</v>
+      </c>
+      <c r="N30" t="s">
+        <v>22</v>
+      </c>
+      <c r="O30" t="s">
+        <v>23</v>
+      </c>
+      <c r="P30" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>22</v>
+      </c>
+      <c r="R30" t="s">
+        <v>84</v>
+      </c>
+      <c r="S30" t="s">
+        <v>22</v>
+      </c>
+      <c r="T30" t="s">
+        <v>23</v>
+      </c>
+      <c r="U30" t="s">
+        <v>22</v>
+      </c>
+      <c r="V30" t="s">
+        <v>23</v>
+      </c>
+      <c r="W30" t="s">
+        <v>22</v>
+      </c>
+      <c r="X30" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>85</v>
+      </c>
+      <c r="B31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31">
+        <v>22</v>
+      </c>
+      <c r="D31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31" t="s">
+        <v>22</v>
+      </c>
+      <c r="I31" t="s">
+        <v>22</v>
+      </c>
+      <c r="J31" t="s">
+        <v>23</v>
+      </c>
+      <c r="K31" t="s">
+        <v>22</v>
+      </c>
+      <c r="L31" t="s">
+        <v>23</v>
+      </c>
+      <c r="M31" t="s">
+        <v>22</v>
+      </c>
+      <c r="N31" t="s">
+        <v>22</v>
+      </c>
+      <c r="O31" t="s">
+        <v>22</v>
+      </c>
+      <c r="P31" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>22</v>
+      </c>
+      <c r="R31" t="s">
+        <v>87</v>
+      </c>
+      <c r="S31" t="s">
+        <v>22</v>
+      </c>
+      <c r="T31" t="s">
+        <v>23</v>
+      </c>
+      <c r="U31" t="s">
+        <v>22</v>
+      </c>
+      <c r="V31" t="s">
+        <v>23</v>
+      </c>
+      <c r="W31" t="s">
+        <v>22</v>
+      </c>
+      <c r="X31" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>92</v>
+      </c>
+      <c r="B32" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32">
+        <v>30</v>
+      </c>
+      <c r="D32" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" t="s">
+        <v>23</v>
+      </c>
+      <c r="H32" t="s">
+        <v>23</v>
+      </c>
+      <c r="I32" t="s">
+        <v>23</v>
+      </c>
+      <c r="J32" t="s">
+        <v>22</v>
+      </c>
+      <c r="K32" t="s">
+        <v>22</v>
+      </c>
+      <c r="L32" t="s">
+        <v>23</v>
+      </c>
+      <c r="M32" t="s">
+        <v>22</v>
+      </c>
+      <c r="O32" t="s">
+        <v>21</v>
+      </c>
+      <c r="P32" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>22</v>
+      </c>
+      <c r="R32" t="s">
+        <v>89</v>
+      </c>
+      <c r="S32" t="s">
+        <v>22</v>
+      </c>
+      <c r="T32" t="s">
+        <v>23</v>
+      </c>
+      <c r="U32" t="s">
+        <v>22</v>
+      </c>
+      <c r="V32" t="s">
+        <v>22</v>
+      </c>
+      <c r="W32" t="s">
+        <v>22</v>
+      </c>
+      <c r="X32" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/input/raw_data/data_extraction/case_report_data_extraction.xlsx
+++ b/input/raw_data/data_extraction/case_report_data_extraction.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackgedge/Library/Mobile Documents/com~apple~CloudDocs/Dev/data/msc/dissertation/iifo_data/lit_search_4/input/raw_data/data_extraction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{4D8B6699-22AA-1A46-9429-D195E57D287A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{D749B6B0-4C30-4449-8477-B9763CCC91CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20560" yWindow="900" windowWidth="20560" windowHeight="12200" xr2:uid="{75954437-E4AF-7C43-AD2A-639C66837574}"/>
   </bookViews>
   <sheets>
     <sheet name="case_report_data_extraction" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1478" uniqueCount="172">
   <si>
     <t>Study_ID</t>
   </si>
@@ -46,9 +59,6 @@
     <t>Object_Button_Battery</t>
   </si>
   <si>
-    <t>Object_Magnetic</t>
-  </si>
-  <si>
     <t>Object_Long</t>
   </si>
   <si>
@@ -296,6 +306,249 @@
   </si>
   <si>
     <t>Previous_Ingestions</t>
+  </si>
+  <si>
+    <t>Object_Magnet</t>
+  </si>
+  <si>
+    <t>99-001</t>
+  </si>
+  <si>
+    <t>"Subsequent post-mortem confirmed a mediastinal abscess and aortoesophageal fistula but no significant clot in the gastrointestinal tract"</t>
+  </si>
+  <si>
+    <t>"swallowed four razorblades and one scalpel 8 days previously"</t>
+  </si>
+  <si>
+    <t>101-001</t>
+  </si>
+  <si>
+    <t>"Ballpoint pen"</t>
+  </si>
+  <si>
+    <t>impulsively deciding to swallow the pen, instead, and described feeling momentary relief before experiencing pain in her chest and stomach</t>
+  </si>
+  <si>
+    <t>101-002</t>
+  </si>
+  <si>
+    <t>Unknown object</t>
+  </si>
+  <si>
+    <t>Unknown motivation</t>
+  </si>
+  <si>
+    <t>101-003</t>
+  </si>
+  <si>
+    <t>"Two uncapped razor blades were recovered endoscopically, and the patient spontaneously passed a third one. The fourth razor blade was never found."</t>
+  </si>
+  <si>
+    <t>101-004</t>
+  </si>
+  <si>
+    <t>"She often refused to have foreign objects removed from her gastrointestinal tract unless the physicians agreed to surgical intervention for her perineal pain."</t>
+  </si>
+  <si>
+    <t>101-005</t>
+  </si>
+  <si>
+    <t>"Four razorblades"</t>
+  </si>
+  <si>
+    <t>113-001</t>
+  </si>
+  <si>
+    <t>"Thermometer"</t>
+  </si>
+  <si>
+    <t>"to obtain narcotic medications", "thermometer had moved to the mediastinum intact, and there were no signs of mediastinitis (Fig 2). She had an uneventful recovery, and the next day she was transferred to the psychiatric ward."</t>
+  </si>
+  <si>
+    <t>"swallowing multiple spoons and a ballpoint pen"</t>
+  </si>
+  <si>
+    <t>"A 62-year-old male prisoner with schizophrenia", "Multiple plastic spoons and a ballpoint pen were impacted in the distal C-loop of duodenum."</t>
+  </si>
+  <si>
+    <t>148-001</t>
+  </si>
+  <si>
+    <t>"attempt to impress his friends", "a median sternotomy was performed and pericardiotomy evacuated 150 ml of blood. A needle found embedded within the left ventricle was surgically removed", "n the small bowel, with no peritonism clinically. An exploratory laparotomy was performed six days post-sternotomy and the needle, which was embedded within the pylorus removed through an enterotomy. No diaphragmatic or hollow viscous injuries were noted intraoperatively. The patient recovered uneventfully."</t>
+  </si>
+  <si>
+    <t>"eight needles"</t>
+  </si>
+  <si>
+    <t>"presence of an ulcer in the angular part of the stomach (Forrest III) as well as a large foreign body wrapped in dark-colored cellophane in the middle of the stomach."</t>
+  </si>
+  <si>
+    <t>"a lighter (8 cm long) which was double wrapped in cellophane"</t>
+  </si>
+  <si>
+    <t>168-001</t>
+  </si>
+  <si>
+    <t>171-001</t>
+  </si>
+  <si>
+    <t>"swallowed a few shower curtain hooks"</t>
+  </si>
+  <si>
+    <t>"he coughed up the foreign body and swallowed it. To our knowledge, this is the first case report of a patient intentionally transferring a foreign body from one organ system to another."</t>
+  </si>
+  <si>
+    <t>172-001</t>
+  </si>
+  <si>
+    <t>"14 consecutive metal balls, stretching a distance of 7 cm, in the small intestine, likely in the jejunum"</t>
+  </si>
+  <si>
+    <t>"playing a game with her brother", "Two perforations of the colon, about 2 cm apart from each other, were identified and 7 of the balls were lying in the mesocolon, coming out from one of the perforations"</t>
+  </si>
+  <si>
+    <t>175-001</t>
+  </si>
+  <si>
+    <t>"Swallowed broken scissors</t>
+  </si>
+  <si>
+    <t>"attempt to commit suicide", "Psychosis", "gastric perforation and duodenal injury"</t>
+  </si>
+  <si>
+    <t>175-002</t>
+  </si>
+  <si>
+    <t>"(A) Abdominal radiograph showing a long metallic FB in the left upper abdomen. (B) Magnified abdominal radiograph in the erect position showing six fine gaps with regular intervals between FBs, suspected to be bar magnets."</t>
+  </si>
+  <si>
+    <t>"32-year-old man with psychosis with epigastric pain", "surgery revealed gastric and colonic perforation by seven bar magnets"</t>
+  </si>
+  <si>
+    <t>182-001</t>
+  </si>
+  <si>
+    <t>"Thumbtacks"</t>
+  </si>
+  <si>
+    <t>"Serial radiographs demonstrated passage of the thumbtacks without complication"</t>
+  </si>
+  <si>
+    <t>182-002</t>
+  </si>
+  <si>
+    <t>"institutionalized 27-year-old woman with schizoaffective disorder and self-mutilating behaviors who presented after ingesting screws, batteries, and coins over a period of several days in an admitted attention-seeking suicide attempt", "A total of 29 coins, which were adherent to each other and to other debris, were removed endoscopically."</t>
+  </si>
+  <si>
+    <t>"ingesting screws, batteries, and 29 coins"</t>
+  </si>
+  <si>
+    <t>195-001</t>
+  </si>
+  <si>
+    <t>"6-cm-length iron nail"</t>
+  </si>
+  <si>
+    <t>214-001</t>
+  </si>
+  <si>
+    <t>"thirty-three magnets"</t>
+  </si>
+  <si>
+    <t>"attempting suicide by cutting his wrist. Incidentally, he was found to have ingested multiple magnets which stayed in the stomach", "Severe antral erosion is observed, likely related to pressure effect of the magnet clump, but there was no sign of perforation"</t>
+  </si>
+  <si>
+    <t>217-001</t>
+  </si>
+  <si>
+    <t>"29 golden pellets weighing 15g each"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingested in Dubai 5 days previously "in order to avoid detection". </t>
+  </si>
+  <si>
+    <t>219-001</t>
+  </si>
+  <si>
+    <t>"motivated by the aim to induce weight loss"</t>
+  </si>
+  <si>
+    <t>"swallowing a small (5 x 3 x 3 cm) rubber balloon filled with water, two days earlier"</t>
+  </si>
+  <si>
+    <t>"deliberately ingested by a refugee for safe keeping"</t>
+  </si>
+  <si>
+    <t>226-001</t>
+  </si>
+  <si>
+    <t>"money package 2.5x4cm", "a bundle of dollars wrapped in a nylon bag", "1000 dollars"</t>
+  </si>
+  <si>
+    <t>238-001</t>
+  </si>
+  <si>
+    <t>"eight cylindrical batteries"</t>
+  </si>
+  <si>
+    <t>"inserted a razor blade wrapped in plastic in his rectum", "admitted to removing the ends from the batteries  prior to ingestion", "The ends had indeed been removed from all the batteries and were successfully retrieved. An active leak of contents from two batteries was observed. Superficial mucosal necrosis was clinically evident but, on inspection, the wall of the stomach appeared viable."</t>
+  </si>
+  <si>
+    <t>231-001</t>
+  </si>
+  <si>
+    <t>"metal teaspoon"</t>
+  </si>
+  <si>
+    <t>"ileal perforation"</t>
+  </si>
+  <si>
+    <t>260-001</t>
+  </si>
+  <si>
+    <t>"padlock 25mm in width"</t>
+  </si>
+  <si>
+    <t>"history of cerebral palsy and self-destructive behaviour"</t>
+  </si>
+  <si>
+    <t>261-001</t>
+  </si>
+  <si>
+    <t>"2.5 × 2.5 cm metallic object impacted in the esophagus", "two radio-opaque foreign bodies measuring 4 × 4 cm and 2 × 2.3 cm in the stomach and cecum"</t>
+  </si>
+  <si>
+    <t>"a case of a schizophrenic who ingested large pieces of computer circuit boards, which impacted at the mid-esophagus, in the stomach, and in the cecum. Endoscopic removal of the esophageal object was unsuccessful, and the foreign objects were removed by esophagotomy and laparotomy.", "complicated by respiratory failure requiring continued ventilator support for 6 days. A postoperative contrast esophagram showed contrast extravasation at the esophagotomy site. It was managed with antibiotics and continued chest tube drainage. Seven days after the operation, CT of the chest showed fluid and gas collections in the paraesophageal and right lower hemithorax that were not being drained by the chest tubes. Thoracentesis confirmed empyema with pleural fl uid growingActinomyces meyeri and Streptococcus mitis. Antibiotics were switched to piperacillin-tazobactam and fluconazole and given for 14 days.", "nd delirium, which were treated with antipsychotics. A follow-up chest x-ray 25 days after the operation showed resolution of empyema. A repeat esophagram at 29 days showed no leak. Th e patient was discharged to a nursing home 53 days after admission"</t>
+  </si>
+  <si>
+    <t>273-001</t>
+  </si>
+  <si>
+    <t>"chronic psychosis and under specific psychotic treatment", "pneumoperitoneum and free intra-abdominal fluid"</t>
+  </si>
+  <si>
+    <t>"metal objects", "coins, screws, wingnuts"</t>
+  </si>
+  <si>
+    <t>274-001</t>
+  </si>
+  <si>
+    <t>"swallowed a comb for self-mutilation"</t>
+  </si>
+  <si>
+    <t>"comb 18 x 2.4 x 0.4 cm"</t>
+  </si>
+  <si>
+    <t>278-001</t>
+  </si>
+  <si>
+    <t>Is_Displaced_Person</t>
+  </si>
+  <si>
+    <t>"Sudanese man", "The patient had been living in UK since 2014 as an asylum seeker but was of no fixed abode.", "simultaneously perforated the duodenum at both D1 and D3 requiring removal via a laparotomy", "swallowing a ballpoint pen in protest against possible deportation"</t>
+  </si>
+  <si>
+    <t>138-001</t>
   </si>
 </sst>
 </file>
@@ -1165,11 +1418,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF37846A-8CBF-AA40-A2E7-D02F4D03EEE3}">
-  <dimension ref="A1:Z32"/>
+  <dimension ref="A1:AA59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R32" sqref="R32"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1177,18 +1430,20 @@
     <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.6640625" customWidth="1"/>
-    <col min="9" max="10" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.6640625" customWidth="1"/>
-    <col min="12" max="16" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3.6640625" customWidth="1"/>
-    <col min="18" max="18" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="25" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="43.33203125" customWidth="1"/>
+    <col min="5" max="6" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.6640625" customWidth="1"/>
+    <col min="8" max="8" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.6640625" customWidth="1"/>
+    <col min="10" max="11" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.6640625" customWidth="1"/>
+    <col min="13" max="17" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.6640625" customWidth="1"/>
+    <col min="19" max="19" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="26" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="43.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="197" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="197" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1202,1092 +1457,1131 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" t="s">
         <v>18</v>
       </c>
-      <c r="Z1" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s">
         <v>21</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S2" t="s">
+        <v>21</v>
+      </c>
+      <c r="T2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U2" t="s">
+        <v>22</v>
+      </c>
+      <c r="V2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W2" t="s">
+        <v>22</v>
+      </c>
+      <c r="X2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA2" t="s">
         <v>23</v>
       </c>
-      <c r="M2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2" t="s">
-        <v>22</v>
-      </c>
-      <c r="O2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>22</v>
-      </c>
-      <c r="R2" t="s">
-        <v>22</v>
-      </c>
-      <c r="S2" t="s">
-        <v>22</v>
-      </c>
-      <c r="T2" t="s">
-        <v>23</v>
-      </c>
-      <c r="U2" t="s">
-        <v>22</v>
-      </c>
-      <c r="V2" t="s">
-        <v>23</v>
-      </c>
-      <c r="W2" t="s">
-        <v>23</v>
-      </c>
-      <c r="X2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>24</v>
-      </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
         <v>21</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M3" t="s">
         <v>22</v>
       </c>
       <c r="N3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="R3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="T3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="U3" t="s">
         <v>22</v>
       </c>
       <c r="V3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="W3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z3" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4">
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
         <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L4" t="s">
         <v>22</v>
       </c>
       <c r="M4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="R4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="T4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="U4" t="s">
         <v>22</v>
       </c>
       <c r="V4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="W4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X4" t="s">
         <v>22</v>
       </c>
       <c r="Y4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z4" t="s">
-        <v>31</v>
+        <v>21</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>20</v>
+      </c>
+      <c r="R5" t="s">
+        <v>21</v>
+      </c>
+      <c r="S5" t="s">
+        <v>21</v>
+      </c>
+      <c r="T5" t="s">
+        <v>21</v>
+      </c>
+      <c r="U5" t="s">
+        <v>22</v>
+      </c>
+      <c r="V5" t="s">
+        <v>21</v>
+      </c>
+      <c r="W5" t="s">
+        <v>22</v>
+      </c>
+      <c r="X5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA5" t="s">
         <v>32</v>
       </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" t="s">
-        <v>22</v>
-      </c>
-      <c r="N5" t="s">
-        <v>22</v>
-      </c>
-      <c r="O5" t="s">
-        <v>23</v>
-      </c>
-      <c r="P5" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>22</v>
-      </c>
-      <c r="R5" t="s">
-        <v>22</v>
-      </c>
-      <c r="S5" t="s">
-        <v>22</v>
-      </c>
-      <c r="T5" t="s">
-        <v>23</v>
-      </c>
-      <c r="U5" t="s">
-        <v>22</v>
-      </c>
-      <c r="V5" t="s">
-        <v>23</v>
-      </c>
-      <c r="W5" t="s">
-        <v>23</v>
-      </c>
-      <c r="X5" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>33</v>
-      </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O6" t="s">
+        <v>21</v>
+      </c>
+      <c r="P6" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>22</v>
+      </c>
+      <c r="R6" t="s">
+        <v>21</v>
+      </c>
+      <c r="S6" t="s">
+        <v>21</v>
+      </c>
+      <c r="T6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U6" t="s">
+        <v>22</v>
+      </c>
+      <c r="V6" t="s">
+        <v>21</v>
+      </c>
+      <c r="W6" t="s">
+        <v>22</v>
+      </c>
+      <c r="X6" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA6" t="s">
         <v>34</v>
       </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" t="s">
-        <v>23</v>
-      </c>
-      <c r="L6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" t="s">
-        <v>22</v>
-      </c>
-      <c r="N6" t="s">
-        <v>22</v>
-      </c>
-      <c r="O6" t="s">
-        <v>22</v>
-      </c>
-      <c r="P6" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>22</v>
-      </c>
-      <c r="R6" t="s">
-        <v>22</v>
-      </c>
-      <c r="S6" t="s">
-        <v>22</v>
-      </c>
-      <c r="T6" t="s">
-        <v>23</v>
-      </c>
-      <c r="U6" t="s">
-        <v>22</v>
-      </c>
-      <c r="V6" t="s">
-        <v>23</v>
-      </c>
-      <c r="W6" t="s">
-        <v>23</v>
-      </c>
-      <c r="X6" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>35</v>
-      </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R7" t="s">
+        <v>21</v>
+      </c>
+      <c r="S7" t="s">
+        <v>21</v>
+      </c>
+      <c r="T7" t="s">
+        <v>21</v>
+      </c>
+      <c r="U7" t="s">
+        <v>22</v>
+      </c>
+      <c r="V7" t="s">
+        <v>21</v>
+      </c>
+      <c r="W7" t="s">
+        <v>22</v>
+      </c>
+      <c r="X7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA7" t="s">
         <v>36</v>
       </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M7" t="s">
-        <v>22</v>
-      </c>
-      <c r="N7" t="s">
-        <v>22</v>
-      </c>
-      <c r="O7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>22</v>
-      </c>
-      <c r="R7" t="s">
-        <v>22</v>
-      </c>
-      <c r="S7" t="s">
-        <v>22</v>
-      </c>
-      <c r="T7" t="s">
-        <v>23</v>
-      </c>
-      <c r="U7" t="s">
-        <v>22</v>
-      </c>
-      <c r="V7" t="s">
-        <v>23</v>
-      </c>
-      <c r="W7" t="s">
-        <v>21</v>
-      </c>
-      <c r="X7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>37</v>
-      </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>3</v>
       </c>
       <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N8" t="s">
+        <v>21</v>
+      </c>
+      <c r="O8" t="s">
+        <v>21</v>
+      </c>
+      <c r="P8" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>20</v>
+      </c>
+      <c r="R8" t="s">
+        <v>21</v>
+      </c>
+      <c r="S8" t="s">
+        <v>21</v>
+      </c>
+      <c r="T8" t="s">
+        <v>21</v>
+      </c>
+      <c r="U8" t="s">
+        <v>22</v>
+      </c>
+      <c r="V8" t="s">
+        <v>21</v>
+      </c>
+      <c r="W8" t="s">
+        <v>21</v>
+      </c>
+      <c r="X8" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA8" t="s">
         <v>38</v>
       </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L8" t="s">
-        <v>23</v>
-      </c>
-      <c r="M8" t="s">
-        <v>22</v>
-      </c>
-      <c r="N8" t="s">
-        <v>22</v>
-      </c>
-      <c r="O8" t="s">
-        <v>23</v>
-      </c>
-      <c r="P8" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>22</v>
-      </c>
-      <c r="R8" t="s">
-        <v>22</v>
-      </c>
-      <c r="S8" t="s">
-        <v>22</v>
-      </c>
-      <c r="T8" t="s">
-        <v>23</v>
-      </c>
-      <c r="U8" t="s">
-        <v>22</v>
-      </c>
-      <c r="V8" t="s">
-        <v>22</v>
-      </c>
-      <c r="W8" t="s">
-        <v>22</v>
-      </c>
-      <c r="X8" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>39</v>
-      </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>3</v>
       </c>
       <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N9" t="s">
+        <v>21</v>
+      </c>
+      <c r="O9" t="s">
+        <v>21</v>
+      </c>
+      <c r="P9" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>21</v>
+      </c>
+      <c r="R9" t="s">
+        <v>21</v>
+      </c>
+      <c r="S9" t="s">
+        <v>21</v>
+      </c>
+      <c r="T9" t="s">
+        <v>21</v>
+      </c>
+      <c r="U9" t="s">
+        <v>22</v>
+      </c>
+      <c r="V9" t="s">
+        <v>21</v>
+      </c>
+      <c r="W9" t="s">
+        <v>20</v>
+      </c>
+      <c r="X9" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA9" t="s">
         <v>40</v>
       </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" t="s">
-        <v>21</v>
-      </c>
-      <c r="K9" t="s">
-        <v>23</v>
-      </c>
-      <c r="L9" t="s">
-        <v>22</v>
-      </c>
-      <c r="M9" t="s">
-        <v>22</v>
-      </c>
-      <c r="N9" t="s">
-        <v>22</v>
-      </c>
-      <c r="O9" t="s">
-        <v>21</v>
-      </c>
-      <c r="P9" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>22</v>
-      </c>
-      <c r="R9" t="s">
-        <v>22</v>
-      </c>
-      <c r="S9" t="s">
-        <v>22</v>
-      </c>
-      <c r="T9" t="s">
-        <v>23</v>
-      </c>
-      <c r="U9" t="s">
-        <v>22</v>
-      </c>
-      <c r="V9" t="s">
-        <v>21</v>
-      </c>
-      <c r="W9" t="s">
-        <v>21</v>
-      </c>
-      <c r="X9" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>41</v>
-      </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10">
         <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H10" t="s">
         <v>21</v>
       </c>
       <c r="I10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L10" t="s">
         <v>22</v>
       </c>
       <c r="M10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q10" t="s">
         <v>22</v>
       </c>
       <c r="R10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="T10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="U10" t="s">
         <v>22</v>
       </c>
       <c r="V10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="W10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X10" t="s">
         <v>22</v>
       </c>
       <c r="Y10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z10" t="s">
-        <v>43</v>
+        <v>22</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11">
         <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M11" t="s">
         <v>22</v>
       </c>
       <c r="N11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R11" t="s">
         <v>22</v>
       </c>
       <c r="S11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="T11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="U11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y11" t="s">
         <v>22</v>
       </c>
       <c r="Z11" t="s">
-        <v>46</v>
+        <v>21</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H12" t="s">
         <v>21</v>
       </c>
       <c r="I12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M12" t="s">
         <v>22</v>
       </c>
       <c r="N12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P12" t="s">
         <v>22</v>
       </c>
       <c r="Q12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="T12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="U12" t="s">
         <v>22</v>
       </c>
       <c r="V12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="W12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z12" t="s">
-        <v>47</v>
+        <v>21</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3</v>
       </c>
       <c r="B13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N13" t="s">
+        <v>21</v>
+      </c>
+      <c r="O13" t="s">
+        <v>21</v>
+      </c>
+      <c r="P13" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>22</v>
+      </c>
+      <c r="R13" t="s">
+        <v>21</v>
+      </c>
+      <c r="S13" t="s">
+        <v>21</v>
+      </c>
+      <c r="T13" t="s">
+        <v>21</v>
+      </c>
+      <c r="U13" t="s">
+        <v>22</v>
+      </c>
+      <c r="V13" t="s">
+        <v>22</v>
+      </c>
+      <c r="W13" t="s">
+        <v>22</v>
+      </c>
+      <c r="X13" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA13" t="s">
         <v>49</v>
       </c>
-      <c r="C13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13" t="s">
-        <v>21</v>
-      </c>
-      <c r="I13" t="s">
-        <v>21</v>
-      </c>
-      <c r="J13" t="s">
-        <v>21</v>
-      </c>
-      <c r="K13" t="s">
-        <v>22</v>
-      </c>
-      <c r="L13" t="s">
-        <v>23</v>
-      </c>
-      <c r="M13" t="s">
-        <v>22</v>
-      </c>
-      <c r="N13" t="s">
-        <v>22</v>
-      </c>
-      <c r="O13" t="s">
-        <v>23</v>
-      </c>
-      <c r="P13" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>22</v>
-      </c>
-      <c r="R13" t="s">
-        <v>22</v>
-      </c>
-      <c r="S13" t="s">
-        <v>22</v>
-      </c>
-      <c r="T13" t="s">
-        <v>23</v>
-      </c>
-      <c r="U13" t="s">
-        <v>23</v>
-      </c>
-      <c r="V13" t="s">
-        <v>23</v>
-      </c>
-      <c r="W13" t="s">
-        <v>21</v>
-      </c>
-      <c r="X13" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>50</v>
-      </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C14">
         <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H14" t="s">
         <v>21</v>
       </c>
       <c r="I14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M14" t="s">
         <v>22</v>
       </c>
       <c r="N14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O14" t="s">
         <v>21</v>
       </c>
       <c r="P14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="T14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="U14" t="s">
         <v>22</v>
@@ -2296,478 +2590,496 @@
         <v>21</v>
       </c>
       <c r="W14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Z14" t="s">
-        <v>52</v>
+        <v>21</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3</v>
       </c>
       <c r="B15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" t="s">
+        <v>22</v>
+      </c>
+      <c r="N15" t="s">
+        <v>21</v>
+      </c>
+      <c r="O15" t="s">
+        <v>21</v>
+      </c>
+      <c r="P15" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>21</v>
+      </c>
+      <c r="R15" t="s">
+        <v>21</v>
+      </c>
+      <c r="S15" t="s">
+        <v>21</v>
+      </c>
+      <c r="T15" t="s">
+        <v>21</v>
+      </c>
+      <c r="U15" t="s">
+        <v>22</v>
+      </c>
+      <c r="V15" t="s">
+        <v>22</v>
+      </c>
+      <c r="W15" t="s">
+        <v>21</v>
+      </c>
+      <c r="X15" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA15" t="s">
         <v>53</v>
       </c>
-      <c r="C15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" t="s">
-        <v>21</v>
-      </c>
-      <c r="I15" t="s">
-        <v>22</v>
-      </c>
-      <c r="J15" t="s">
-        <v>22</v>
-      </c>
-      <c r="K15" t="s">
-        <v>22</v>
-      </c>
-      <c r="L15" t="s">
-        <v>23</v>
-      </c>
-      <c r="M15" t="s">
-        <v>22</v>
-      </c>
-      <c r="N15" t="s">
-        <v>22</v>
-      </c>
-      <c r="O15" t="s">
-        <v>23</v>
-      </c>
-      <c r="P15" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>22</v>
-      </c>
-      <c r="R15" t="s">
-        <v>22</v>
-      </c>
-      <c r="S15" t="s">
-        <v>22</v>
-      </c>
-      <c r="T15" t="s">
-        <v>23</v>
-      </c>
-      <c r="U15" t="s">
-        <v>23</v>
-      </c>
-      <c r="V15" t="s">
-        <v>22</v>
-      </c>
-      <c r="W15" t="s">
-        <v>22</v>
-      </c>
-      <c r="X15" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>54</v>
-      </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C16">
         <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H16" t="s">
         <v>21</v>
       </c>
       <c r="I16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L16" t="s">
         <v>22</v>
       </c>
       <c r="M16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O16" t="s">
         <v>21</v>
       </c>
       <c r="P16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="T16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="U16" t="s">
         <v>22</v>
       </c>
       <c r="V16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="W16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z16" t="s">
-        <v>56</v>
+        <v>21</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3</v>
       </c>
       <c r="B17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" t="s">
+        <v>22</v>
+      </c>
+      <c r="M17" t="s">
+        <v>21</v>
+      </c>
+      <c r="N17" t="s">
+        <v>21</v>
+      </c>
+      <c r="O17" t="s">
+        <v>21</v>
+      </c>
+      <c r="P17" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" t="s">
+        <v>21</v>
+      </c>
+      <c r="S17" t="s">
+        <v>21</v>
+      </c>
+      <c r="T17" t="s">
+        <v>21</v>
+      </c>
+      <c r="U17" t="s">
+        <v>22</v>
+      </c>
+      <c r="V17" t="s">
+        <v>21</v>
+      </c>
+      <c r="W17" t="s">
+        <v>22</v>
+      </c>
+      <c r="X17" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA17" t="s">
         <v>57</v>
       </c>
-      <c r="C17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" t="s">
-        <v>22</v>
-      </c>
-      <c r="H17" t="s">
-        <v>21</v>
-      </c>
-      <c r="I17" t="s">
-        <v>21</v>
-      </c>
-      <c r="J17" t="s">
-        <v>21</v>
-      </c>
-      <c r="K17" t="s">
-        <v>23</v>
-      </c>
-      <c r="L17" t="s">
-        <v>22</v>
-      </c>
-      <c r="M17" t="s">
-        <v>22</v>
-      </c>
-      <c r="N17" t="s">
-        <v>22</v>
-      </c>
-      <c r="O17" t="s">
-        <v>23</v>
-      </c>
-      <c r="P17" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>22</v>
-      </c>
-      <c r="R17" t="s">
-        <v>22</v>
-      </c>
-      <c r="S17" t="s">
-        <v>22</v>
-      </c>
-      <c r="T17" t="s">
-        <v>23</v>
-      </c>
-      <c r="U17" t="s">
-        <v>22</v>
-      </c>
-      <c r="V17" t="s">
-        <v>23</v>
-      </c>
-      <c r="W17" t="s">
-        <v>23</v>
-      </c>
-      <c r="X17" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>58</v>
-      </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C18">
         <v>19</v>
       </c>
       <c r="D18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H18" t="s">
         <v>21</v>
       </c>
       <c r="I18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M18" t="s">
         <v>22</v>
       </c>
       <c r="N18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q18" t="s">
         <v>22</v>
       </c>
       <c r="R18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="T18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="U18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X18" t="s">
         <v>22</v>
       </c>
       <c r="Y18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z18" t="s">
-        <v>60</v>
+        <v>21</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C19">
         <v>30</v>
       </c>
       <c r="D19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H19" t="s">
         <v>21</v>
       </c>
       <c r="I19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K19" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L19" t="s">
         <v>22</v>
       </c>
       <c r="M19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q19" t="s">
         <v>22</v>
       </c>
       <c r="R19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="T19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="U19" t="s">
         <v>22</v>
       </c>
       <c r="V19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="W19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X19" t="s">
         <v>22</v>
       </c>
       <c r="Y19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z19" t="s">
-        <v>62</v>
+        <v>21</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C20">
         <v>40</v>
       </c>
       <c r="D20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H20" t="s">
         <v>21</v>
       </c>
       <c r="I20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M20" t="s">
         <v>22</v>
       </c>
       <c r="N20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="R20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="T20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="U20" t="s">
         <v>22</v>
@@ -2776,96 +3088,185 @@
         <v>21</v>
       </c>
       <c r="W20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z20" t="s">
-        <v>64</v>
+        <v>20</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C21">
         <v>31</v>
       </c>
       <c r="D21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" t="s">
         <v>22</v>
       </c>
       <c r="G21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H21" t="s">
         <v>21</v>
       </c>
       <c r="I21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K21" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M21" t="s">
         <v>22</v>
       </c>
       <c r="N21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="R21" t="s">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="S21" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="T21" t="s">
         <v>22</v>
       </c>
       <c r="U21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="W21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z21" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>51</v>
+      </c>
+      <c r="B22" t="s">
         <v>69</v>
       </c>
+      <c r="C22">
+        <v>20</v>
+      </c>
+      <c r="D22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" t="s">
+        <v>22</v>
+      </c>
+      <c r="K22" t="s">
+        <v>22</v>
+      </c>
+      <c r="L22" t="s">
+        <v>21</v>
+      </c>
+      <c r="M22" t="s">
+        <v>21</v>
+      </c>
+      <c r="N22" t="s">
+        <v>21</v>
+      </c>
+      <c r="O22" t="s">
+        <v>21</v>
+      </c>
+      <c r="P22" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>22</v>
+      </c>
+      <c r="R22" t="s">
+        <v>22</v>
+      </c>
+      <c r="S22" t="s">
+        <v>74</v>
+      </c>
+      <c r="T22" t="s">
+        <v>21</v>
+      </c>
+      <c r="U22" t="s">
+        <v>22</v>
+      </c>
+      <c r="V22" t="s">
+        <v>21</v>
+      </c>
+      <c r="W22" t="s">
+        <v>22</v>
+      </c>
+      <c r="X22" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>51</v>
       </c>
@@ -2876,73 +3277,76 @@
         <v>20</v>
       </c>
       <c r="D23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I23" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K23" t="s">
         <v>22</v>
       </c>
       <c r="L23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R23" t="s">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="S23" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="T23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="U23" t="s">
         <v>22</v>
       </c>
       <c r="V23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="W23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X23" t="s">
         <v>22</v>
       </c>
       <c r="Y23" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>51</v>
       </c>
@@ -2950,76 +3354,79 @@
         <v>71</v>
       </c>
       <c r="C24">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I24" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K24" t="s">
         <v>22</v>
       </c>
       <c r="L24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P24" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R24" t="s">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="S24" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="T24" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="U24" t="s">
         <v>22</v>
       </c>
       <c r="V24" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="W24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X24" t="s">
         <v>22</v>
       </c>
       <c r="Y24" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>51</v>
       </c>
@@ -3027,76 +3434,79 @@
         <v>72</v>
       </c>
       <c r="C25">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I25" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K25" t="s">
         <v>22</v>
       </c>
       <c r="L25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R25" t="s">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="S25" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="T25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="U25" t="s">
         <v>22</v>
       </c>
       <c r="V25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="W25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X25" t="s">
         <v>22</v>
       </c>
       <c r="Y25" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>51</v>
       </c>
@@ -3104,548 +3514,2805 @@
         <v>73</v>
       </c>
       <c r="C26">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" t="s">
+        <v>20</v>
+      </c>
+      <c r="J26" t="s">
+        <v>22</v>
+      </c>
+      <c r="K26" t="s">
+        <v>22</v>
+      </c>
+      <c r="L26" t="s">
+        <v>21</v>
+      </c>
+      <c r="M26" t="s">
+        <v>21</v>
+      </c>
+      <c r="N26" t="s">
+        <v>21</v>
+      </c>
+      <c r="O26" t="s">
+        <v>21</v>
+      </c>
+      <c r="P26" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>22</v>
+      </c>
+      <c r="R26" t="s">
+        <v>22</v>
+      </c>
+      <c r="S26" t="s">
+        <v>74</v>
+      </c>
+      <c r="T26" t="s">
+        <v>21</v>
+      </c>
+      <c r="U26" t="s">
+        <v>22</v>
+      </c>
+      <c r="V26" t="s">
+        <v>21</v>
+      </c>
+      <c r="W26" t="s">
+        <v>22</v>
+      </c>
+      <c r="X26" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>54</v>
+      </c>
+      <c r="B27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27">
+        <v>23</v>
+      </c>
+      <c r="D27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27" t="s">
+        <v>20</v>
+      </c>
+      <c r="I27" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" t="s">
+        <v>22</v>
+      </c>
+      <c r="K27" t="s">
+        <v>22</v>
+      </c>
+      <c r="L27" t="s">
+        <v>21</v>
+      </c>
+      <c r="M27" t="s">
+        <v>21</v>
+      </c>
+      <c r="N27" t="s">
+        <v>21</v>
+      </c>
+      <c r="O27" t="s">
+        <v>21</v>
+      </c>
+      <c r="P27" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>22</v>
+      </c>
+      <c r="R27" t="s">
+        <v>21</v>
+      </c>
+      <c r="S27" t="s">
+        <v>76</v>
+      </c>
+      <c r="T27" t="s">
+        <v>21</v>
+      </c>
+      <c r="U27" t="s">
+        <v>22</v>
+      </c>
+      <c r="V27" t="s">
+        <v>21</v>
+      </c>
+      <c r="W27" t="s">
+        <v>20</v>
+      </c>
+      <c r="X27" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>60</v>
+      </c>
+      <c r="B28" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28">
+        <v>16</v>
+      </c>
+      <c r="D28" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H28" t="s">
+        <v>21</v>
+      </c>
+      <c r="I28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J28" t="s">
+        <v>21</v>
+      </c>
+      <c r="K28" t="s">
+        <v>21</v>
+      </c>
+      <c r="L28" t="s">
+        <v>21</v>
+      </c>
+      <c r="M28" t="s">
+        <v>22</v>
+      </c>
+      <c r="N28" t="s">
+        <v>21</v>
+      </c>
+      <c r="O28" t="s">
+        <v>21</v>
+      </c>
+      <c r="P28" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>21</v>
+      </c>
+      <c r="R28" t="s">
+        <v>22</v>
+      </c>
+      <c r="S28" t="s">
+        <v>78</v>
+      </c>
+      <c r="T28" t="s">
+        <v>21</v>
+      </c>
+      <c r="U28" t="s">
+        <v>21</v>
+      </c>
+      <c r="V28" t="s">
+        <v>21</v>
+      </c>
+      <c r="W28" t="s">
+        <v>21</v>
+      </c>
+      <c r="X28" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>61</v>
+      </c>
+      <c r="B29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29">
+        <v>22</v>
+      </c>
+      <c r="D29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29" t="s">
+        <v>22</v>
+      </c>
+      <c r="J29" t="s">
+        <v>22</v>
+      </c>
+      <c r="K29" t="s">
+        <v>21</v>
+      </c>
+      <c r="L29" t="s">
+        <v>21</v>
+      </c>
+      <c r="M29" t="s">
+        <v>21</v>
+      </c>
+      <c r="N29" t="s">
+        <v>21</v>
+      </c>
+      <c r="O29" t="s">
+        <v>21</v>
+      </c>
+      <c r="P29" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>22</v>
+      </c>
+      <c r="R29" t="s">
+        <v>21</v>
+      </c>
+      <c r="S29" t="s">
+        <v>83</v>
+      </c>
+      <c r="T29" t="s">
+        <v>21</v>
+      </c>
+      <c r="U29" t="s">
+        <v>22</v>
+      </c>
+      <c r="V29" t="s">
+        <v>21</v>
+      </c>
+      <c r="W29" t="s">
+        <v>22</v>
+      </c>
+      <c r="X29" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>85</v>
+      </c>
+      <c r="B30" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30">
+        <v>22</v>
+      </c>
+      <c r="D30" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" t="s">
+        <v>21</v>
+      </c>
+      <c r="G30" t="s">
+        <v>20</v>
+      </c>
+      <c r="H30" t="s">
+        <v>21</v>
+      </c>
+      <c r="I30" t="s">
+        <v>21</v>
+      </c>
+      <c r="J30" t="s">
+        <v>21</v>
+      </c>
+      <c r="K30" t="s">
+        <v>22</v>
+      </c>
+      <c r="L30" t="s">
+        <v>21</v>
+      </c>
+      <c r="M30" t="s">
+        <v>22</v>
+      </c>
+      <c r="N30" t="s">
+        <v>21</v>
+      </c>
+      <c r="O30" t="s">
+        <v>21</v>
+      </c>
+      <c r="P30" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>21</v>
+      </c>
+      <c r="R30" t="s">
+        <v>21</v>
+      </c>
+      <c r="S30" t="s">
+        <v>86</v>
+      </c>
+      <c r="T30" t="s">
+        <v>21</v>
+      </c>
+      <c r="U30" t="s">
+        <v>22</v>
+      </c>
+      <c r="V30" t="s">
+        <v>21</v>
+      </c>
+      <c r="W30" t="s">
+        <v>22</v>
+      </c>
+      <c r="X30" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>92</v>
+      </c>
+      <c r="B31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31">
+        <v>30</v>
+      </c>
+      <c r="D31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" t="s">
+        <v>21</v>
+      </c>
+      <c r="G31" t="s">
+        <v>20</v>
+      </c>
+      <c r="H31" t="s">
+        <v>22</v>
+      </c>
+      <c r="I31" t="s">
+        <v>22</v>
+      </c>
+      <c r="J31" t="s">
+        <v>22</v>
+      </c>
+      <c r="K31" t="s">
+        <v>21</v>
+      </c>
+      <c r="L31" t="s">
+        <v>21</v>
+      </c>
+      <c r="M31" t="s">
+        <v>22</v>
+      </c>
+      <c r="N31" t="s">
+        <v>21</v>
+      </c>
+      <c r="O31" t="s">
+        <v>21</v>
+      </c>
+      <c r="P31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>22</v>
+      </c>
+      <c r="R31" t="s">
+        <v>21</v>
+      </c>
+      <c r="S31" t="s">
+        <v>88</v>
+      </c>
+      <c r="T31" t="s">
+        <v>21</v>
+      </c>
+      <c r="U31" t="s">
+        <v>22</v>
+      </c>
+      <c r="V31" t="s">
+        <v>21</v>
+      </c>
+      <c r="W31" t="s">
+        <v>21</v>
+      </c>
+      <c r="X31" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>99</v>
+      </c>
+      <c r="B32" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32">
+        <v>44</v>
+      </c>
+      <c r="D32" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32" t="s">
+        <v>21</v>
+      </c>
+      <c r="G32" t="s">
+        <v>20</v>
+      </c>
+      <c r="H32" t="s">
+        <v>22</v>
+      </c>
+      <c r="I32" t="s">
+        <v>20</v>
+      </c>
+      <c r="J32" t="s">
+        <v>20</v>
+      </c>
+      <c r="K32" t="s">
+        <v>20</v>
+      </c>
+      <c r="L32" t="s">
+        <v>22</v>
+      </c>
+      <c r="M32" t="s">
+        <v>21</v>
+      </c>
+      <c r="N32" t="s">
+        <v>21</v>
+      </c>
+      <c r="O32" t="s">
+        <v>21</v>
+      </c>
+      <c r="P32" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>22</v>
+      </c>
+      <c r="R32" t="s">
+        <v>22</v>
+      </c>
+      <c r="S32" t="s">
+        <v>94</v>
+      </c>
+      <c r="T32" t="s">
+        <v>21</v>
+      </c>
+      <c r="U32" t="s">
+        <v>22</v>
+      </c>
+      <c r="V32" t="s">
+        <v>22</v>
+      </c>
+      <c r="W32" t="s">
+        <v>22</v>
+      </c>
+      <c r="X32" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>101</v>
+      </c>
+      <c r="B33" t="s">
+        <v>95</v>
+      </c>
+      <c r="C33">
         <v>28</v>
       </c>
-      <c r="E26" t="s">
+      <c r="D33" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33" t="s">
+        <v>21</v>
+      </c>
+      <c r="F33" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33" t="s">
+        <v>20</v>
+      </c>
+      <c r="H33" t="s">
+        <v>22</v>
+      </c>
+      <c r="I33" t="s">
+        <v>22</v>
+      </c>
+      <c r="J33" t="s">
+        <v>22</v>
+      </c>
+      <c r="K33" t="s">
+        <v>21</v>
+      </c>
+      <c r="L33" t="s">
+        <v>21</v>
+      </c>
+      <c r="M33" t="s">
+        <v>22</v>
+      </c>
+      <c r="N33" t="s">
+        <v>21</v>
+      </c>
+      <c r="O33" t="s">
+        <v>21</v>
+      </c>
+      <c r="P33" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>21</v>
+      </c>
+      <c r="R33" t="s">
+        <v>21</v>
+      </c>
+      <c r="S33" t="s">
+        <v>96</v>
+      </c>
+      <c r="T33" t="s">
+        <v>20</v>
+      </c>
+      <c r="U33" t="s">
+        <v>20</v>
+      </c>
+      <c r="V33" t="s">
+        <v>20</v>
+      </c>
+      <c r="W33" t="s">
+        <v>20</v>
+      </c>
+      <c r="X33" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>101</v>
+      </c>
+      <c r="B34" t="s">
+        <v>98</v>
+      </c>
+      <c r="C34">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>31</v>
+      </c>
+      <c r="E34" t="s">
+        <v>21</v>
+      </c>
+      <c r="F34" t="s">
+        <v>21</v>
+      </c>
+      <c r="G34" t="s">
+        <v>20</v>
+      </c>
+      <c r="H34" t="s">
+        <v>22</v>
+      </c>
+      <c r="I34" t="s">
+        <v>22</v>
+      </c>
+      <c r="J34" t="s">
+        <v>22</v>
+      </c>
+      <c r="K34" t="s">
+        <v>21</v>
+      </c>
+      <c r="L34" t="s">
+        <v>22</v>
+      </c>
+      <c r="M34" t="s">
+        <v>21</v>
+      </c>
+      <c r="N34" t="s">
+        <v>20</v>
+      </c>
+      <c r="O34" t="s">
+        <v>20</v>
+      </c>
+      <c r="P34" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R34" t="s">
+        <v>20</v>
+      </c>
+      <c r="S34" t="s">
+        <v>99</v>
+      </c>
+      <c r="T34" t="s">
+        <v>20</v>
+      </c>
+      <c r="U34" t="s">
+        <v>20</v>
+      </c>
+      <c r="V34" t="s">
+        <v>20</v>
+      </c>
+      <c r="W34" t="s">
+        <v>20</v>
+      </c>
+      <c r="X34" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>101</v>
+      </c>
+      <c r="B35" t="s">
+        <v>101</v>
+      </c>
+      <c r="C35">
+        <v>31</v>
+      </c>
+      <c r="D35" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35" t="s">
+        <v>21</v>
+      </c>
+      <c r="F35" t="s">
+        <v>21</v>
+      </c>
+      <c r="G35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H35" t="s">
+        <v>22</v>
+      </c>
+      <c r="I35" t="s">
+        <v>20</v>
+      </c>
+      <c r="J35" t="s">
+        <v>20</v>
+      </c>
+      <c r="K35" t="s">
+        <v>20</v>
+      </c>
+      <c r="L35" t="s">
+        <v>22</v>
+      </c>
+      <c r="M35" t="s">
+        <v>21</v>
+      </c>
+      <c r="N35" t="s">
+        <v>21</v>
+      </c>
+      <c r="O35" t="s">
+        <v>21</v>
+      </c>
+      <c r="P35" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>22</v>
+      </c>
+      <c r="R35" t="s">
+        <v>22</v>
+      </c>
+      <c r="S35" t="s">
+        <v>102</v>
+      </c>
+      <c r="T35" t="s">
+        <v>22</v>
+      </c>
+      <c r="U35" t="s">
+        <v>21</v>
+      </c>
+      <c r="V35" t="s">
+        <v>21</v>
+      </c>
+      <c r="W35" t="s">
+        <v>20</v>
+      </c>
+      <c r="X35" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>101</v>
+      </c>
+      <c r="B36" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36">
+        <v>53</v>
+      </c>
+      <c r="D36" t="s">
+        <v>31</v>
+      </c>
+      <c r="E36" t="s">
+        <v>21</v>
+      </c>
+      <c r="F36" t="s">
+        <v>21</v>
+      </c>
+      <c r="G36" t="s">
+        <v>20</v>
+      </c>
+      <c r="H36" t="s">
+        <v>22</v>
+      </c>
+      <c r="I36" t="s">
+        <v>22</v>
+      </c>
+      <c r="J36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L36" t="s">
+        <v>22</v>
+      </c>
+      <c r="M36" t="s">
+        <v>22</v>
+      </c>
+      <c r="N36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R36" t="s">
+        <v>20</v>
+      </c>
+      <c r="S36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T36" t="s">
+        <v>20</v>
+      </c>
+      <c r="U36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V36" t="s">
+        <v>20</v>
+      </c>
+      <c r="W36" t="s">
+        <v>20</v>
+      </c>
+      <c r="X36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>101</v>
+      </c>
+      <c r="B37" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37">
+        <v>34</v>
+      </c>
+      <c r="D37" t="s">
+        <v>31</v>
+      </c>
+      <c r="E37" t="s">
+        <v>21</v>
+      </c>
+      <c r="F37" t="s">
+        <v>21</v>
+      </c>
+      <c r="G37" t="s">
+        <v>20</v>
+      </c>
+      <c r="H37" t="s">
+        <v>22</v>
+      </c>
+      <c r="I37" t="s">
+        <v>22</v>
+      </c>
+      <c r="J37" t="s">
+        <v>22</v>
+      </c>
+      <c r="K37" t="s">
+        <v>20</v>
+      </c>
+      <c r="L37" t="s">
+        <v>21</v>
+      </c>
+      <c r="M37" t="s">
+        <v>22</v>
+      </c>
+      <c r="N37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O37" t="s">
+        <v>21</v>
+      </c>
+      <c r="P37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>22</v>
+      </c>
+      <c r="R37" t="s">
+        <v>22</v>
+      </c>
+      <c r="S37" t="s">
+        <v>106</v>
+      </c>
+      <c r="T37" t="s">
+        <v>20</v>
+      </c>
+      <c r="U37" t="s">
+        <v>20</v>
+      </c>
+      <c r="V37" t="s">
+        <v>20</v>
+      </c>
+      <c r="W37" t="s">
+        <v>20</v>
+      </c>
+      <c r="X37" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>113</v>
+      </c>
+      <c r="B38" t="s">
+        <v>107</v>
+      </c>
+      <c r="C38">
+        <v>39</v>
+      </c>
+      <c r="D38" t="s">
+        <v>31</v>
+      </c>
+      <c r="E38" t="s">
+        <v>21</v>
+      </c>
+      <c r="F38" t="s">
+        <v>21</v>
+      </c>
+      <c r="G38" t="s">
+        <v>20</v>
+      </c>
+      <c r="H38" t="s">
+        <v>22</v>
+      </c>
+      <c r="I38" t="s">
+        <v>22</v>
+      </c>
+      <c r="J38" t="s">
+        <v>22</v>
+      </c>
+      <c r="K38" t="s">
+        <v>21</v>
+      </c>
+      <c r="L38" t="s">
+        <v>21</v>
+      </c>
+      <c r="M38" t="s">
+        <v>22</v>
+      </c>
+      <c r="N38" t="s">
+        <v>21</v>
+      </c>
+      <c r="O38" t="s">
+        <v>21</v>
+      </c>
+      <c r="P38" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>21</v>
+      </c>
+      <c r="R38" t="s">
+        <v>21</v>
+      </c>
+      <c r="S38" t="s">
+        <v>108</v>
+      </c>
+      <c r="T38" t="s">
+        <v>22</v>
+      </c>
+      <c r="U38" t="s">
+        <v>21</v>
+      </c>
+      <c r="V38" t="s">
+        <v>21</v>
+      </c>
+      <c r="W38" t="s">
+        <v>21</v>
+      </c>
+      <c r="X38" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>138</v>
+      </c>
+      <c r="B39" t="s">
+        <v>171</v>
+      </c>
+      <c r="C39">
+        <v>62</v>
+      </c>
+      <c r="D39" t="s">
+        <v>27</v>
+      </c>
+      <c r="E39" t="s">
+        <v>22</v>
+      </c>
+      <c r="F39" t="s">
+        <v>21</v>
+      </c>
+      <c r="G39" t="s">
+        <v>20</v>
+      </c>
+      <c r="H39" t="s">
+        <v>22</v>
+      </c>
+      <c r="I39" t="s">
+        <v>22</v>
+      </c>
+      <c r="J39" t="s">
+        <v>20</v>
+      </c>
+      <c r="K39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L39" t="s">
+        <v>22</v>
+      </c>
+      <c r="M39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P39" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R39" t="s">
+        <v>22</v>
+      </c>
+      <c r="S39" t="s">
+        <v>110</v>
+      </c>
+      <c r="T39" t="s">
+        <v>22</v>
+      </c>
+      <c r="U39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V39" t="s">
+        <v>21</v>
+      </c>
+      <c r="W39" t="s">
+        <v>22</v>
+      </c>
+      <c r="X39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>148</v>
+      </c>
+      <c r="B40" t="s">
+        <v>112</v>
+      </c>
+      <c r="C40">
+        <v>19</v>
+      </c>
+      <c r="D40" t="s">
+        <v>27</v>
+      </c>
+      <c r="E40" t="s">
+        <v>21</v>
+      </c>
+      <c r="F40" t="s">
+        <v>21</v>
+      </c>
+      <c r="G40" t="s">
+        <v>20</v>
+      </c>
+      <c r="H40" t="s">
+        <v>21</v>
+      </c>
+      <c r="I40" t="s">
+        <v>21</v>
+      </c>
+      <c r="J40" t="s">
+        <v>21</v>
+      </c>
+      <c r="K40" t="s">
+        <v>21</v>
+      </c>
+      <c r="L40" t="s">
+        <v>21</v>
+      </c>
+      <c r="M40" t="s">
+        <v>22</v>
+      </c>
+      <c r="N40" t="s">
+        <v>21</v>
+      </c>
+      <c r="O40" t="s">
+        <v>21</v>
+      </c>
+      <c r="P40" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>22</v>
+      </c>
+      <c r="R40" t="s">
+        <v>22</v>
+      </c>
+      <c r="S40" t="s">
+        <v>114</v>
+      </c>
+      <c r="T40" t="s">
+        <v>21</v>
+      </c>
+      <c r="U40" t="s">
+        <v>22</v>
+      </c>
+      <c r="V40" t="s">
+        <v>21</v>
+      </c>
+      <c r="W40" t="s">
+        <v>22</v>
+      </c>
+      <c r="X40" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>168</v>
+      </c>
+      <c r="B41" t="s">
+        <v>117</v>
+      </c>
+      <c r="C41">
+        <v>36</v>
+      </c>
+      <c r="D41" t="s">
+        <v>27</v>
+      </c>
+      <c r="E41" t="s">
+        <v>21</v>
+      </c>
+      <c r="F41" t="s">
+        <v>21</v>
+      </c>
+      <c r="G41" t="s">
+        <v>20</v>
+      </c>
+      <c r="H41" t="s">
+        <v>21</v>
+      </c>
+      <c r="I41" t="s">
+        <v>21</v>
+      </c>
+      <c r="J41" t="s">
+        <v>20</v>
+      </c>
+      <c r="K41" t="s">
+        <v>20</v>
+      </c>
+      <c r="L41" t="s">
+        <v>22</v>
+      </c>
+      <c r="M41" t="s">
+        <v>21</v>
+      </c>
+      <c r="N41" t="s">
+        <v>21</v>
+      </c>
+      <c r="O41" t="s">
+        <v>21</v>
+      </c>
+      <c r="P41" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>21</v>
+      </c>
+      <c r="R41" t="s">
+        <v>21</v>
+      </c>
+      <c r="S41" t="s">
+        <v>116</v>
+      </c>
+      <c r="T41" t="s">
+        <v>22</v>
+      </c>
+      <c r="U41" t="s">
+        <v>21</v>
+      </c>
+      <c r="V41" t="s">
+        <v>21</v>
+      </c>
+      <c r="W41" t="s">
+        <v>22</v>
+      </c>
+      <c r="X41" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>171</v>
+      </c>
+      <c r="B42" t="s">
+        <v>118</v>
+      </c>
+      <c r="C42">
+        <v>26</v>
+      </c>
+      <c r="D42" t="s">
+        <v>27</v>
+      </c>
+      <c r="E42" t="s">
+        <v>22</v>
+      </c>
+      <c r="F42" t="s">
+        <v>21</v>
+      </c>
+      <c r="G42" t="s">
+        <v>20</v>
+      </c>
+      <c r="H42" t="s">
+        <v>22</v>
+      </c>
+      <c r="I42" t="s">
+        <v>20</v>
+      </c>
+      <c r="J42" t="s">
+        <v>20</v>
+      </c>
+      <c r="K42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L42" t="s">
+        <v>22</v>
+      </c>
+      <c r="M42" t="s">
+        <v>21</v>
+      </c>
+      <c r="N42" t="s">
+        <v>21</v>
+      </c>
+      <c r="O42" t="s">
+        <v>21</v>
+      </c>
+      <c r="P42" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>21</v>
+      </c>
+      <c r="R42" t="s">
+        <v>22</v>
+      </c>
+      <c r="S42" t="s">
+        <v>119</v>
+      </c>
+      <c r="T42" t="s">
+        <v>22</v>
+      </c>
+      <c r="U42" t="s">
+        <v>21</v>
+      </c>
+      <c r="V42" t="s">
+        <v>21</v>
+      </c>
+      <c r="W42" t="s">
+        <v>21</v>
+      </c>
+      <c r="X42" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>172</v>
+      </c>
+      <c r="B43" t="s">
+        <v>121</v>
+      </c>
+      <c r="C43">
+        <v>12</v>
+      </c>
+      <c r="D43" t="s">
+        <v>31</v>
+      </c>
+      <c r="E43" t="s">
+        <v>21</v>
+      </c>
+      <c r="F43" t="s">
+        <v>21</v>
+      </c>
+      <c r="G43" t="s">
+        <v>20</v>
+      </c>
+      <c r="H43" t="s">
+        <v>21</v>
+      </c>
+      <c r="I43" t="s">
+        <v>21</v>
+      </c>
+      <c r="J43" t="s">
+        <v>21</v>
+      </c>
+      <c r="K43" t="s">
+        <v>21</v>
+      </c>
+      <c r="L43" t="s">
+        <v>21</v>
+      </c>
+      <c r="M43" t="s">
+        <v>22</v>
+      </c>
+      <c r="N43" t="s">
+        <v>21</v>
+      </c>
+      <c r="O43" t="s">
+        <v>22</v>
+      </c>
+      <c r="P43" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>21</v>
+      </c>
+      <c r="R43" t="s">
+        <v>22</v>
+      </c>
+      <c r="S43" t="s">
+        <v>122</v>
+      </c>
+      <c r="T43" t="s">
+        <v>21</v>
+      </c>
+      <c r="U43" t="s">
+        <v>22</v>
+      </c>
+      <c r="V43" t="s">
+        <v>21</v>
+      </c>
+      <c r="W43" t="s">
+        <v>22</v>
+      </c>
+      <c r="X43" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>175</v>
+      </c>
+      <c r="B44" t="s">
+        <v>124</v>
+      </c>
+      <c r="C44">
+        <v>62</v>
+      </c>
+      <c r="D44" t="s">
+        <v>27</v>
+      </c>
+      <c r="E44" t="s">
+        <v>21</v>
+      </c>
+      <c r="F44" t="s">
+        <v>21</v>
+      </c>
+      <c r="G44" t="s">
+        <v>20</v>
+      </c>
+      <c r="H44" t="s">
+        <v>22</v>
+      </c>
+      <c r="I44" t="s">
+        <v>20</v>
+      </c>
+      <c r="J44" t="s">
+        <v>22</v>
+      </c>
+      <c r="K44" t="s">
+        <v>21</v>
+      </c>
+      <c r="L44" t="s">
+        <v>21</v>
+      </c>
+      <c r="M44" t="s">
+        <v>22</v>
+      </c>
+      <c r="N44" t="s">
+        <v>21</v>
+      </c>
+      <c r="O44" t="s">
+        <v>21</v>
+      </c>
+      <c r="P44" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>22</v>
+      </c>
+      <c r="R44" t="s">
+        <v>21</v>
+      </c>
+      <c r="S44" t="s">
+        <v>125</v>
+      </c>
+      <c r="T44" t="s">
+        <v>21</v>
+      </c>
+      <c r="U44" t="s">
+        <v>22</v>
+      </c>
+      <c r="V44" t="s">
+        <v>20</v>
+      </c>
+      <c r="W44" t="s">
+        <v>22</v>
+      </c>
+      <c r="X44" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>175</v>
+      </c>
+      <c r="B45" t="s">
+        <v>127</v>
+      </c>
+      <c r="C45">
+        <v>32</v>
+      </c>
+      <c r="D45" t="s">
+        <v>27</v>
+      </c>
+      <c r="E45" t="s">
+        <v>21</v>
+      </c>
+      <c r="F45" t="s">
+        <v>20</v>
+      </c>
+      <c r="G45" t="s">
+        <v>20</v>
+      </c>
+      <c r="H45" t="s">
+        <v>22</v>
+      </c>
+      <c r="I45" t="s">
+        <v>20</v>
+      </c>
+      <c r="J45" t="s">
+        <v>20</v>
+      </c>
+      <c r="K45" t="s">
+        <v>21</v>
+      </c>
+      <c r="L45" t="s">
+        <v>21</v>
+      </c>
+      <c r="M45" t="s">
+        <v>22</v>
+      </c>
+      <c r="N45" t="s">
+        <v>21</v>
+      </c>
+      <c r="O45" t="s">
+        <v>22</v>
+      </c>
+      <c r="P45" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>21</v>
+      </c>
+      <c r="R45" t="s">
+        <v>22</v>
+      </c>
+      <c r="S45" t="s">
+        <v>128</v>
+      </c>
+      <c r="T45" t="s">
+        <v>21</v>
+      </c>
+      <c r="U45" t="s">
+        <v>22</v>
+      </c>
+      <c r="V45" t="s">
+        <v>20</v>
+      </c>
+      <c r="W45" t="s">
+        <v>22</v>
+      </c>
+      <c r="X45" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>182</v>
+      </c>
+      <c r="B46" t="s">
+        <v>130</v>
+      </c>
+      <c r="C46">
+        <v>25</v>
+      </c>
+      <c r="D46" t="s">
+        <v>31</v>
+      </c>
+      <c r="E46" t="s">
+        <v>21</v>
+      </c>
+      <c r="F46" t="s">
+        <v>21</v>
+      </c>
+      <c r="G46" t="s">
+        <v>20</v>
+      </c>
+      <c r="H46" t="s">
+        <v>22</v>
+      </c>
+      <c r="I46" t="s">
+        <v>20</v>
+      </c>
+      <c r="J46" t="s">
+        <v>20</v>
+      </c>
+      <c r="K46" t="s">
+        <v>20</v>
+      </c>
+      <c r="L46" t="s">
+        <v>22</v>
+      </c>
+      <c r="M46" t="s">
+        <v>21</v>
+      </c>
+      <c r="N46" t="s">
+        <v>21</v>
+      </c>
+      <c r="O46" t="s">
+        <v>21</v>
+      </c>
+      <c r="P46" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>22</v>
+      </c>
+      <c r="R46" t="s">
+        <v>22</v>
+      </c>
+      <c r="S46" t="s">
+        <v>131</v>
+      </c>
+      <c r="T46" t="s">
+        <v>21</v>
+      </c>
+      <c r="U46" t="s">
+        <v>21</v>
+      </c>
+      <c r="V46" t="s">
+        <v>21</v>
+      </c>
+      <c r="W46" t="s">
+        <v>21</v>
+      </c>
+      <c r="X46" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>182</v>
+      </c>
+      <c r="B47" t="s">
+        <v>133</v>
+      </c>
+      <c r="C47">
+        <v>27</v>
+      </c>
+      <c r="D47" t="s">
+        <v>31</v>
+      </c>
+      <c r="E47" t="s">
+        <v>21</v>
+      </c>
+      <c r="F47" t="s">
+        <v>22</v>
+      </c>
+      <c r="G47" t="s">
+        <v>20</v>
+      </c>
+      <c r="H47" t="s">
+        <v>22</v>
+      </c>
+      <c r="I47" t="s">
+        <v>21</v>
+      </c>
+      <c r="J47" t="s">
+        <v>21</v>
+      </c>
+      <c r="K47" t="s">
+        <v>21</v>
+      </c>
+      <c r="L47" t="s">
+        <v>21</v>
+      </c>
+      <c r="M47" t="s">
+        <v>22</v>
+      </c>
+      <c r="N47" t="s">
+        <v>21</v>
+      </c>
+      <c r="O47" t="s">
+        <v>21</v>
+      </c>
+      <c r="P47" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>21</v>
+      </c>
+      <c r="R47" t="s">
+        <v>22</v>
+      </c>
+      <c r="S47" t="s">
+        <v>135</v>
+      </c>
+      <c r="T47" t="s">
+        <v>22</v>
+      </c>
+      <c r="U47" t="s">
+        <v>21</v>
+      </c>
+      <c r="V47" t="s">
+        <v>21</v>
+      </c>
+      <c r="W47" t="s">
+        <v>21</v>
+      </c>
+      <c r="X47" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>195</v>
+      </c>
+      <c r="B48" t="s">
+        <v>136</v>
+      </c>
+      <c r="C48">
+        <v>16</v>
+      </c>
+      <c r="D48" t="s">
+        <v>27</v>
+      </c>
+      <c r="E48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F48" t="s">
+        <v>21</v>
+      </c>
+      <c r="G48" t="s">
+        <v>20</v>
+      </c>
+      <c r="H48" t="s">
+        <v>20</v>
+      </c>
+      <c r="I48" t="s">
+        <v>20</v>
+      </c>
+      <c r="J48" t="s">
+        <v>20</v>
+      </c>
+      <c r="K48" t="s">
+        <v>20</v>
+      </c>
+      <c r="L48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M48" t="s">
+        <v>21</v>
+      </c>
+      <c r="N48" t="s">
+        <v>21</v>
+      </c>
+      <c r="O48" t="s">
+        <v>21</v>
+      </c>
+      <c r="P48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R48" t="s">
+        <v>21</v>
+      </c>
+      <c r="S48" t="s">
+        <v>137</v>
+      </c>
+      <c r="T48" t="s">
+        <v>21</v>
+      </c>
+      <c r="U48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V48" t="s">
+        <v>21</v>
+      </c>
+      <c r="W48" t="s">
+        <v>21</v>
+      </c>
+      <c r="X48" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>214</v>
+      </c>
+      <c r="B49" t="s">
+        <v>138</v>
+      </c>
+      <c r="C49">
+        <v>17</v>
+      </c>
+      <c r="D49" t="s">
+        <v>27</v>
+      </c>
+      <c r="E49" t="s">
+        <v>21</v>
+      </c>
+      <c r="F49" t="s">
+        <v>20</v>
+      </c>
+      <c r="G49" t="s">
+        <v>20</v>
+      </c>
+      <c r="H49" t="s">
+        <v>22</v>
+      </c>
+      <c r="I49" t="s">
+        <v>22</v>
+      </c>
+      <c r="J49" t="s">
+        <v>22</v>
+      </c>
+      <c r="K49" t="s">
+        <v>21</v>
+      </c>
+      <c r="L49" t="s">
+        <v>21</v>
+      </c>
+      <c r="M49" t="s">
+        <v>21</v>
+      </c>
+      <c r="N49" t="s">
+        <v>21</v>
+      </c>
+      <c r="O49" t="s">
+        <v>22</v>
+      </c>
+      <c r="P49" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>21</v>
+      </c>
+      <c r="R49" t="s">
+        <v>22</v>
+      </c>
+      <c r="S49" t="s">
+        <v>139</v>
+      </c>
+      <c r="T49" t="s">
+        <v>22</v>
+      </c>
+      <c r="U49" t="s">
+        <v>22</v>
+      </c>
+      <c r="V49" t="s">
+        <v>21</v>
+      </c>
+      <c r="W49" t="s">
+        <v>22</v>
+      </c>
+      <c r="X49" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>217</v>
+      </c>
+      <c r="B50" t="s">
+        <v>141</v>
+      </c>
+      <c r="C50">
+        <v>44</v>
+      </c>
+      <c r="D50" t="s">
+        <v>27</v>
+      </c>
+      <c r="E50" t="s">
+        <v>21</v>
+      </c>
+      <c r="F50" t="s">
+        <v>21</v>
+      </c>
+      <c r="G50" t="s">
+        <v>20</v>
+      </c>
+      <c r="H50" t="s">
+        <v>21</v>
+      </c>
+      <c r="I50" t="s">
+        <v>20</v>
+      </c>
+      <c r="J50" t="s">
+        <v>21</v>
+      </c>
+      <c r="K50" t="s">
+        <v>21</v>
+      </c>
+      <c r="L50" t="s">
+        <v>21</v>
+      </c>
+      <c r="M50" t="s">
+        <v>22</v>
+      </c>
+      <c r="N50" t="s">
+        <v>21</v>
+      </c>
+      <c r="O50" t="s">
+        <v>21</v>
+      </c>
+      <c r="P50" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>21</v>
+      </c>
+      <c r="R50" t="s">
+        <v>22</v>
+      </c>
+      <c r="S50" t="s">
+        <v>142</v>
+      </c>
+      <c r="T50" t="s">
+        <v>22</v>
+      </c>
+      <c r="U50" t="s">
+        <v>21</v>
+      </c>
+      <c r="V50" t="s">
+        <v>21</v>
+      </c>
+      <c r="W50" t="s">
+        <v>21</v>
+      </c>
+      <c r="X50" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA50" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>219</v>
+      </c>
+      <c r="B51" t="s">
+        <v>144</v>
+      </c>
+      <c r="C51">
+        <v>33</v>
+      </c>
+      <c r="D51" t="s">
+        <v>31</v>
+      </c>
+      <c r="E51" t="s">
+        <v>21</v>
+      </c>
+      <c r="F51" t="s">
+        <v>21</v>
+      </c>
+      <c r="G51" t="s">
+        <v>20</v>
+      </c>
+      <c r="H51" t="s">
+        <v>21</v>
+      </c>
+      <c r="I51" t="s">
+        <v>21</v>
+      </c>
+      <c r="J51" t="s">
+        <v>21</v>
+      </c>
+      <c r="K51" t="s">
+        <v>21</v>
+      </c>
+      <c r="L51" t="s">
+        <v>21</v>
+      </c>
+      <c r="M51" t="s">
+        <v>22</v>
+      </c>
+      <c r="N51" t="s">
+        <v>21</v>
+      </c>
+      <c r="O51" t="s">
+        <v>21</v>
+      </c>
+      <c r="P51" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>21</v>
+      </c>
+      <c r="R51" t="s">
+        <v>21</v>
+      </c>
+      <c r="S51" t="s">
+        <v>146</v>
+      </c>
+      <c r="T51" t="s">
+        <v>22</v>
+      </c>
+      <c r="U51" t="s">
+        <v>22</v>
+      </c>
+      <c r="V51" t="s">
+        <v>21</v>
+      </c>
+      <c r="W51" t="s">
+        <v>22</v>
+      </c>
+      <c r="X51" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA51" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>226</v>
+      </c>
+      <c r="B52" t="s">
+        <v>148</v>
+      </c>
+      <c r="C52">
         <v>23</v>
       </c>
-      <c r="F26" t="s">
-        <v>22</v>
-      </c>
-      <c r="G26" t="s">
-        <v>21</v>
-      </c>
-      <c r="H26" t="s">
-        <v>21</v>
-      </c>
-      <c r="I26" t="s">
-        <v>23</v>
-      </c>
-      <c r="J26" t="s">
-        <v>23</v>
-      </c>
-      <c r="K26" t="s">
-        <v>22</v>
-      </c>
-      <c r="L26" t="s">
-        <v>22</v>
-      </c>
-      <c r="M26" t="s">
-        <v>22</v>
-      </c>
-      <c r="N26" t="s">
-        <v>22</v>
-      </c>
-      <c r="O26" t="s">
-        <v>22</v>
-      </c>
-      <c r="P26" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>23</v>
-      </c>
-      <c r="R26" t="s">
-        <v>75</v>
-      </c>
-      <c r="S26" t="s">
-        <v>22</v>
-      </c>
-      <c r="T26" t="s">
-        <v>23</v>
-      </c>
-      <c r="U26" t="s">
-        <v>22</v>
-      </c>
-      <c r="V26" t="s">
-        <v>23</v>
-      </c>
-      <c r="W26" t="s">
-        <v>23</v>
-      </c>
-      <c r="X26" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>22</v>
+      <c r="D52" t="s">
+        <v>27</v>
+      </c>
+      <c r="E52" t="s">
+        <v>21</v>
+      </c>
+      <c r="F52" t="s">
+        <v>21</v>
+      </c>
+      <c r="G52" t="s">
+        <v>22</v>
+      </c>
+      <c r="H52" t="s">
+        <v>21</v>
+      </c>
+      <c r="I52" t="s">
+        <v>20</v>
+      </c>
+      <c r="J52" t="s">
+        <v>21</v>
+      </c>
+      <c r="K52" t="s">
+        <v>21</v>
+      </c>
+      <c r="L52" t="s">
+        <v>21</v>
+      </c>
+      <c r="M52" t="s">
+        <v>22</v>
+      </c>
+      <c r="N52" t="s">
+        <v>21</v>
+      </c>
+      <c r="O52" t="s">
+        <v>21</v>
+      </c>
+      <c r="P52" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>21</v>
+      </c>
+      <c r="R52" t="s">
+        <v>21</v>
+      </c>
+      <c r="S52" t="s">
+        <v>149</v>
+      </c>
+      <c r="T52" t="s">
+        <v>22</v>
+      </c>
+      <c r="U52" t="s">
+        <v>21</v>
+      </c>
+      <c r="V52" t="s">
+        <v>21</v>
+      </c>
+      <c r="W52" t="s">
+        <v>21</v>
+      </c>
+      <c r="X52" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA52" t="s">
+        <v>147</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>51</v>
-      </c>
-      <c r="B27" t="s">
-        <v>74</v>
-      </c>
-      <c r="C27">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>231</v>
+      </c>
+      <c r="B53" t="s">
+        <v>153</v>
+      </c>
+      <c r="C53">
+        <v>37</v>
+      </c>
+      <c r="D53" t="s">
+        <v>27</v>
+      </c>
+      <c r="E53" t="s">
+        <v>22</v>
+      </c>
+      <c r="F53" t="s">
+        <v>21</v>
+      </c>
+      <c r="G53" t="s">
+        <v>20</v>
+      </c>
+      <c r="H53" t="s">
+        <v>22</v>
+      </c>
+      <c r="I53" t="s">
+        <v>22</v>
+      </c>
+      <c r="J53" t="s">
+        <v>20</v>
+      </c>
+      <c r="K53" t="s">
+        <v>20</v>
+      </c>
+      <c r="L53" t="s">
+        <v>22</v>
+      </c>
+      <c r="M53" t="s">
+        <v>20</v>
+      </c>
+      <c r="N53" t="s">
+        <v>21</v>
+      </c>
+      <c r="O53" t="s">
+        <v>21</v>
+      </c>
+      <c r="P53" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>21</v>
+      </c>
+      <c r="R53" t="s">
+        <v>22</v>
+      </c>
+      <c r="S53" t="s">
+        <v>151</v>
+      </c>
+      <c r="U53" t="s">
+        <v>22</v>
+      </c>
+      <c r="V53" t="s">
+        <v>21</v>
+      </c>
+      <c r="W53" t="s">
+        <v>21</v>
+      </c>
+      <c r="X53" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA53" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>238</v>
+      </c>
+      <c r="B54" t="s">
+        <v>150</v>
+      </c>
+      <c r="C54">
         <v>29</v>
       </c>
-      <c r="D27" t="s">
-        <v>28</v>
-      </c>
-      <c r="E27" t="s">
-        <v>23</v>
-      </c>
-      <c r="F27" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" t="s">
-        <v>21</v>
-      </c>
-      <c r="H27" t="s">
-        <v>21</v>
-      </c>
-      <c r="I27" t="s">
-        <v>23</v>
-      </c>
-      <c r="J27" t="s">
-        <v>23</v>
-      </c>
-      <c r="K27" t="s">
-        <v>22</v>
-      </c>
-      <c r="L27" t="s">
-        <v>22</v>
-      </c>
-      <c r="M27" t="s">
-        <v>22</v>
-      </c>
-      <c r="N27" t="s">
-        <v>22</v>
-      </c>
-      <c r="O27" t="s">
-        <v>22</v>
-      </c>
-      <c r="P27" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>23</v>
-      </c>
-      <c r="R27" t="s">
-        <v>75</v>
-      </c>
-      <c r="S27" t="s">
-        <v>22</v>
-      </c>
-      <c r="T27" t="s">
-        <v>23</v>
-      </c>
-      <c r="U27" t="s">
-        <v>22</v>
-      </c>
-      <c r="V27" t="s">
-        <v>23</v>
-      </c>
-      <c r="W27" t="s">
-        <v>23</v>
-      </c>
-      <c r="X27" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>22</v>
+      <c r="D54" t="s">
+        <v>31</v>
+      </c>
+      <c r="E54" t="s">
+        <v>21</v>
+      </c>
+      <c r="F54" t="s">
+        <v>21</v>
+      </c>
+      <c r="G54" t="s">
+        <v>20</v>
+      </c>
+      <c r="H54" t="s">
+        <v>22</v>
+      </c>
+      <c r="I54" t="s">
+        <v>22</v>
+      </c>
+      <c r="J54" t="s">
+        <v>20</v>
+      </c>
+      <c r="K54" t="s">
+        <v>20</v>
+      </c>
+      <c r="L54" t="s">
+        <v>22</v>
+      </c>
+      <c r="M54" t="s">
+        <v>20</v>
+      </c>
+      <c r="N54" t="s">
+        <v>21</v>
+      </c>
+      <c r="O54" t="s">
+        <v>21</v>
+      </c>
+      <c r="P54" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>21</v>
+      </c>
+      <c r="R54" t="s">
+        <v>21</v>
+      </c>
+      <c r="S54" t="s">
+        <v>154</v>
+      </c>
+      <c r="T54" t="s">
+        <v>21</v>
+      </c>
+      <c r="U54" t="s">
+        <v>22</v>
+      </c>
+      <c r="V54" t="s">
+        <v>21</v>
+      </c>
+      <c r="W54" t="s">
+        <v>22</v>
+      </c>
+      <c r="X54" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA54" t="s">
+        <v>155</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>54</v>
-      </c>
-      <c r="B28" t="s">
-        <v>76</v>
-      </c>
-      <c r="C28">
-        <v>23</v>
-      </c>
-      <c r="D28" t="s">
-        <v>28</v>
-      </c>
-      <c r="E28" t="s">
-        <v>23</v>
-      </c>
-      <c r="F28" t="s">
-        <v>22</v>
-      </c>
-      <c r="G28" t="s">
-        <v>21</v>
-      </c>
-      <c r="H28" t="s">
-        <v>21</v>
-      </c>
-      <c r="I28" t="s">
-        <v>23</v>
-      </c>
-      <c r="J28" t="s">
-        <v>23</v>
-      </c>
-      <c r="K28" t="s">
-        <v>22</v>
-      </c>
-      <c r="L28" t="s">
-        <v>22</v>
-      </c>
-      <c r="M28" t="s">
-        <v>22</v>
-      </c>
-      <c r="N28" t="s">
-        <v>22</v>
-      </c>
-      <c r="O28" t="s">
-        <v>22</v>
-      </c>
-      <c r="P28" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>22</v>
-      </c>
-      <c r="R28" t="s">
-        <v>77</v>
-      </c>
-      <c r="S28" t="s">
-        <v>22</v>
-      </c>
-      <c r="T28" t="s">
-        <v>23</v>
-      </c>
-      <c r="U28" t="s">
-        <v>22</v>
-      </c>
-      <c r="V28" t="s">
-        <v>21</v>
-      </c>
-      <c r="W28" t="s">
-        <v>21</v>
-      </c>
-      <c r="X28" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>22</v>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>260</v>
+      </c>
+      <c r="B55" t="s">
+        <v>156</v>
+      </c>
+      <c r="C55">
+        <v>22</v>
+      </c>
+      <c r="D55" t="s">
+        <v>31</v>
+      </c>
+      <c r="E55" t="s">
+        <v>21</v>
+      </c>
+      <c r="F55" t="s">
+        <v>20</v>
+      </c>
+      <c r="G55" t="s">
+        <v>20</v>
+      </c>
+      <c r="H55" t="s">
+        <v>22</v>
+      </c>
+      <c r="I55" t="s">
+        <v>20</v>
+      </c>
+      <c r="J55" t="s">
+        <v>20</v>
+      </c>
+      <c r="K55" t="s">
+        <v>20</v>
+      </c>
+      <c r="L55" t="s">
+        <v>22</v>
+      </c>
+      <c r="M55" t="s">
+        <v>22</v>
+      </c>
+      <c r="N55" t="s">
+        <v>21</v>
+      </c>
+      <c r="O55" t="s">
+        <v>21</v>
+      </c>
+      <c r="P55" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>21</v>
+      </c>
+      <c r="R55" t="s">
+        <v>21</v>
+      </c>
+      <c r="S55" t="s">
+        <v>157</v>
+      </c>
+      <c r="T55" t="s">
+        <v>22</v>
+      </c>
+      <c r="U55" t="s">
+        <v>21</v>
+      </c>
+      <c r="V55" t="s">
+        <v>21</v>
+      </c>
+      <c r="W55" t="s">
+        <v>21</v>
+      </c>
+      <c r="X55" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA55" t="s">
+        <v>158</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>60</v>
-      </c>
-      <c r="B29" t="s">
-        <v>78</v>
-      </c>
-      <c r="C29">
-        <v>16</v>
-      </c>
-      <c r="D29" t="s">
-        <v>32</v>
-      </c>
-      <c r="E29" t="s">
-        <v>22</v>
-      </c>
-      <c r="F29" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" t="s">
-        <v>22</v>
-      </c>
-      <c r="H29" t="s">
-        <v>22</v>
-      </c>
-      <c r="I29" t="s">
-        <v>22</v>
-      </c>
-      <c r="J29" t="s">
-        <v>22</v>
-      </c>
-      <c r="K29" t="s">
-        <v>22</v>
-      </c>
-      <c r="L29" t="s">
-        <v>23</v>
-      </c>
-      <c r="M29" t="s">
-        <v>22</v>
-      </c>
-      <c r="N29" t="s">
-        <v>22</v>
-      </c>
-      <c r="O29" t="s">
-        <v>22</v>
-      </c>
-      <c r="P29" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>23</v>
-      </c>
-      <c r="R29" t="s">
-        <v>79</v>
-      </c>
-      <c r="S29" t="s">
-        <v>22</v>
-      </c>
-      <c r="T29" t="s">
-        <v>22</v>
-      </c>
-      <c r="U29" t="s">
-        <v>22</v>
-      </c>
-      <c r="V29" t="s">
-        <v>22</v>
-      </c>
-      <c r="W29" t="s">
-        <v>22</v>
-      </c>
-      <c r="X29" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z29" t="s">
-        <v>80</v>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>261</v>
+      </c>
+      <c r="B56" t="s">
+        <v>159</v>
+      </c>
+      <c r="C56">
+        <v>48</v>
+      </c>
+      <c r="D56" t="s">
+        <v>27</v>
+      </c>
+      <c r="E56" t="s">
+        <v>21</v>
+      </c>
+      <c r="F56" t="s">
+        <v>22</v>
+      </c>
+      <c r="G56" t="s">
+        <v>20</v>
+      </c>
+      <c r="H56" t="s">
+        <v>22</v>
+      </c>
+      <c r="I56" t="s">
+        <v>20</v>
+      </c>
+      <c r="J56" t="s">
+        <v>20</v>
+      </c>
+      <c r="K56" t="s">
+        <v>20</v>
+      </c>
+      <c r="L56" t="s">
+        <v>22</v>
+      </c>
+      <c r="M56" t="s">
+        <v>22</v>
+      </c>
+      <c r="N56" t="s">
+        <v>21</v>
+      </c>
+      <c r="O56" t="s">
+        <v>21</v>
+      </c>
+      <c r="P56" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>21</v>
+      </c>
+      <c r="R56" t="s">
+        <v>22</v>
+      </c>
+      <c r="S56" t="s">
+        <v>160</v>
+      </c>
+      <c r="T56" t="s">
+        <v>22</v>
+      </c>
+      <c r="U56" t="s">
+        <v>22</v>
+      </c>
+      <c r="V56" t="s">
+        <v>21</v>
+      </c>
+      <c r="W56" t="s">
+        <v>22</v>
+      </c>
+      <c r="X56" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA56" t="s">
+        <v>161</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>61</v>
-      </c>
-      <c r="B30" t="s">
-        <v>81</v>
-      </c>
-      <c r="C30">
-        <v>22</v>
-      </c>
-      <c r="D30" t="s">
-        <v>28</v>
-      </c>
-      <c r="E30" t="s">
-        <v>22</v>
-      </c>
-      <c r="F30" t="s">
-        <v>22</v>
-      </c>
-      <c r="G30" t="s">
-        <v>21</v>
-      </c>
-      <c r="H30" t="s">
-        <v>23</v>
-      </c>
-      <c r="I30" t="s">
-        <v>23</v>
-      </c>
-      <c r="J30" t="s">
-        <v>22</v>
-      </c>
-      <c r="K30" t="s">
-        <v>22</v>
-      </c>
-      <c r="L30" t="s">
-        <v>22</v>
-      </c>
-      <c r="M30" t="s">
-        <v>22</v>
-      </c>
-      <c r="N30" t="s">
-        <v>22</v>
-      </c>
-      <c r="O30" t="s">
-        <v>23</v>
-      </c>
-      <c r="P30" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>22</v>
-      </c>
-      <c r="R30" t="s">
-        <v>84</v>
-      </c>
-      <c r="S30" t="s">
-        <v>22</v>
-      </c>
-      <c r="T30" t="s">
-        <v>23</v>
-      </c>
-      <c r="U30" t="s">
-        <v>22</v>
-      </c>
-      <c r="V30" t="s">
-        <v>23</v>
-      </c>
-      <c r="W30" t="s">
-        <v>22</v>
-      </c>
-      <c r="X30" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z30" t="s">
-        <v>82</v>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>273</v>
+      </c>
+      <c r="B57" t="s">
+        <v>162</v>
+      </c>
+      <c r="C57">
+        <v>52</v>
+      </c>
+      <c r="D57" t="s">
+        <v>27</v>
+      </c>
+      <c r="E57" t="s">
+        <v>21</v>
+      </c>
+      <c r="F57" t="s">
+        <v>20</v>
+      </c>
+      <c r="G57" t="s">
+        <v>20</v>
+      </c>
+      <c r="H57" t="s">
+        <v>22</v>
+      </c>
+      <c r="I57" t="s">
+        <v>20</v>
+      </c>
+      <c r="J57" t="s">
+        <v>20</v>
+      </c>
+      <c r="K57" t="s">
+        <v>20</v>
+      </c>
+      <c r="L57" t="s">
+        <v>22</v>
+      </c>
+      <c r="M57" t="s">
+        <v>22</v>
+      </c>
+      <c r="N57" t="s">
+        <v>21</v>
+      </c>
+      <c r="O57" t="s">
+        <v>21</v>
+      </c>
+      <c r="P57" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>22</v>
+      </c>
+      <c r="R57" t="s">
+        <v>22</v>
+      </c>
+      <c r="S57" t="s">
+        <v>164</v>
+      </c>
+      <c r="T57" t="s">
+        <v>21</v>
+      </c>
+      <c r="U57" t="s">
+        <v>22</v>
+      </c>
+      <c r="V57" t="s">
+        <v>21</v>
+      </c>
+      <c r="W57" t="s">
+        <v>22</v>
+      </c>
+      <c r="X57" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA57" t="s">
+        <v>163</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>85</v>
-      </c>
-      <c r="B31" t="s">
-        <v>85</v>
-      </c>
-      <c r="C31">
-        <v>22</v>
-      </c>
-      <c r="D31" t="s">
-        <v>32</v>
-      </c>
-      <c r="E31" t="s">
-        <v>22</v>
-      </c>
-      <c r="F31" t="s">
-        <v>22</v>
-      </c>
-      <c r="G31" t="s">
-        <v>22</v>
-      </c>
-      <c r="H31" t="s">
-        <v>22</v>
-      </c>
-      <c r="I31" t="s">
-        <v>22</v>
-      </c>
-      <c r="J31" t="s">
-        <v>23</v>
-      </c>
-      <c r="K31" t="s">
-        <v>22</v>
-      </c>
-      <c r="L31" t="s">
-        <v>23</v>
-      </c>
-      <c r="M31" t="s">
-        <v>22</v>
-      </c>
-      <c r="N31" t="s">
-        <v>22</v>
-      </c>
-      <c r="O31" t="s">
-        <v>22</v>
-      </c>
-      <c r="P31" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>22</v>
-      </c>
-      <c r="R31" t="s">
-        <v>87</v>
-      </c>
-      <c r="S31" t="s">
-        <v>22</v>
-      </c>
-      <c r="T31" t="s">
-        <v>23</v>
-      </c>
-      <c r="U31" t="s">
-        <v>22</v>
-      </c>
-      <c r="V31" t="s">
-        <v>23</v>
-      </c>
-      <c r="W31" t="s">
-        <v>22</v>
-      </c>
-      <c r="X31" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z31" t="s">
-        <v>86</v>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>274</v>
+      </c>
+      <c r="B58" t="s">
+        <v>165</v>
+      </c>
+      <c r="C58">
+        <v>38</v>
+      </c>
+      <c r="D58" t="s">
+        <v>31</v>
+      </c>
+      <c r="E58" t="s">
+        <v>21</v>
+      </c>
+      <c r="F58" t="s">
+        <v>21</v>
+      </c>
+      <c r="G58" t="s">
+        <v>20</v>
+      </c>
+      <c r="H58" t="s">
+        <v>22</v>
+      </c>
+      <c r="I58" t="s">
+        <v>20</v>
+      </c>
+      <c r="J58" t="s">
+        <v>22</v>
+      </c>
+      <c r="K58" t="s">
+        <v>21</v>
+      </c>
+      <c r="L58" t="s">
+        <v>21</v>
+      </c>
+      <c r="M58" t="s">
+        <v>21</v>
+      </c>
+      <c r="N58" t="s">
+        <v>21</v>
+      </c>
+      <c r="O58" t="s">
+        <v>21</v>
+      </c>
+      <c r="P58" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>21</v>
+      </c>
+      <c r="R58" t="s">
+        <v>21</v>
+      </c>
+      <c r="S58" t="s">
+        <v>167</v>
+      </c>
+      <c r="T58" t="s">
+        <v>22</v>
+      </c>
+      <c r="U58" t="s">
+        <v>22</v>
+      </c>
+      <c r="V58" t="s">
+        <v>21</v>
+      </c>
+      <c r="W58" t="s">
+        <v>21</v>
+      </c>
+      <c r="X58" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z58" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA58" t="s">
+        <v>166</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>92</v>
-      </c>
-      <c r="B32" t="s">
-        <v>88</v>
-      </c>
-      <c r="C32">
-        <v>30</v>
-      </c>
-      <c r="D32" t="s">
-        <v>28</v>
-      </c>
-      <c r="E32" t="s">
-        <v>23</v>
-      </c>
-      <c r="F32" t="s">
-        <v>22</v>
-      </c>
-      <c r="G32" t="s">
-        <v>23</v>
-      </c>
-      <c r="H32" t="s">
-        <v>23</v>
-      </c>
-      <c r="I32" t="s">
-        <v>23</v>
-      </c>
-      <c r="J32" t="s">
-        <v>22</v>
-      </c>
-      <c r="K32" t="s">
-        <v>22</v>
-      </c>
-      <c r="L32" t="s">
-        <v>23</v>
-      </c>
-      <c r="M32" t="s">
-        <v>22</v>
-      </c>
-      <c r="O32" t="s">
-        <v>21</v>
-      </c>
-      <c r="P32" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>22</v>
-      </c>
-      <c r="R32" t="s">
-        <v>89</v>
-      </c>
-      <c r="S32" t="s">
-        <v>22</v>
-      </c>
-      <c r="T32" t="s">
-        <v>23</v>
-      </c>
-      <c r="U32" t="s">
-        <v>22</v>
-      </c>
-      <c r="V32" t="s">
-        <v>22</v>
-      </c>
-      <c r="W32" t="s">
-        <v>22</v>
-      </c>
-      <c r="X32" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z32" t="s">
-        <v>90</v>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>278</v>
+      </c>
+      <c r="B59" t="s">
+        <v>168</v>
+      </c>
+      <c r="C59">
+        <v>27</v>
+      </c>
+      <c r="D59" t="s">
+        <v>27</v>
+      </c>
+      <c r="E59" t="s">
+        <v>21</v>
+      </c>
+      <c r="F59" t="s">
+        <v>21</v>
+      </c>
+      <c r="G59" t="s">
+        <v>22</v>
+      </c>
+      <c r="H59" t="s">
+        <v>21</v>
+      </c>
+      <c r="I59" t="s">
+        <v>21</v>
+      </c>
+      <c r="J59" t="s">
+        <v>21</v>
+      </c>
+      <c r="K59" t="s">
+        <v>22</v>
+      </c>
+      <c r="L59" t="s">
+        <v>21</v>
+      </c>
+      <c r="M59" t="s">
+        <v>21</v>
+      </c>
+      <c r="N59" t="s">
+        <v>21</v>
+      </c>
+      <c r="O59" t="s">
+        <v>21</v>
+      </c>
+      <c r="P59" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>21</v>
+      </c>
+      <c r="R59" t="s">
+        <v>21</v>
+      </c>
+      <c r="S59" t="s">
+        <v>96</v>
+      </c>
+      <c r="T59" t="s">
+        <v>22</v>
+      </c>
+      <c r="U59" t="s">
+        <v>22</v>
+      </c>
+      <c r="V59" t="s">
+        <v>21</v>
+      </c>
+      <c r="W59" t="s">
+        <v>22</v>
+      </c>
+      <c r="X59" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA59" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>